--- a/Stimuli_design/Databases/Clearpond & Celex_ENG.xlsx
+++ b/Stimuli_design/Databases/Clearpond & Celex_ENG.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Κατερίνα\Nextcloud\Multipic_Exp.1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\experiment1\Stimuli_design\Databases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{694B48FA-6538-43E8-8CFC-B8E3114B0A5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0CB6810-B51D-4A0E-8274-4B88B2062D09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="912" windowWidth="17736" windowHeight="12048" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="clearpondEN_HE1IR" sheetId="2" r:id="rId1"/>
@@ -1759,9 +1759,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1850,12 +1849,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{75271D00-3745-4172-BD28-E18D008C072F}" name="WebCelex_Done" displayName="WebCelex_Done" ref="A1:C250" tableType="queryTable" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{75271D00-3745-4172-BD28-E18D008C072F}" name="WebCelex_Done" displayName="WebCelex_Done" ref="A1:C250" tableType="queryTable" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="A1:C250" xr:uid="{75271D00-3745-4172-BD28-E18D008C072F}"/>
   <tableColumns count="3">
-    <tableColumn id="2" xr3:uid="{141146F1-CE61-4CBB-9F4C-F231C82E3B8E}" uniqueName="2" name="Lemma Head" queryTableFieldId="2" dataDxfId="1"/>
-    <tableColumn id="1" xr3:uid="{295AD41A-2A12-4BE2-A7C8-3DE8E92713BD}" uniqueName="1" name="Lemma Class" queryTableFieldId="1" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{CDDCE6B4-BDD7-4A57-ACA4-7540F4926F1E}" uniqueName="3" name="Lemma SylCnt" queryTableFieldId="3" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{141146F1-CE61-4CBB-9F4C-F231C82E3B8E}" uniqueName="2" name="Lemma Head" queryTableFieldId="2" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{295AD41A-2A12-4BE2-A7C8-3DE8E92713BD}" uniqueName="1" name="Lemma Class" queryTableFieldId="1" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{CDDCE6B4-BDD7-4A57-ACA4-7540F4926F1E}" uniqueName="3" name="Lemma SylCnt" queryTableFieldId="3" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2126,7 +2125,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DC10D47-ACA9-4B80-86B7-12F4BD12A981}">
   <dimension ref="A1:G279"/>
   <sheetViews>
-    <sheetView topLeftCell="A271" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
       <selection activeCell="A277" sqref="A277"/>
     </sheetView>
   </sheetViews>
@@ -2165,10 +2164,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2">
@@ -2188,10 +2187,10 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>10</v>
       </c>
       <c r="C3">
@@ -2211,10 +2210,10 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>12</v>
       </c>
       <c r="C4">
@@ -2234,10 +2233,10 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>14</v>
       </c>
       <c r="C5">
@@ -2257,10 +2256,10 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>16</v>
       </c>
       <c r="C6">
@@ -2280,10 +2279,10 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>18</v>
       </c>
       <c r="C7">
@@ -2303,10 +2302,10 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>20</v>
       </c>
       <c r="C8">
@@ -2326,10 +2325,10 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>22</v>
       </c>
       <c r="C9">
@@ -2349,10 +2348,10 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>24</v>
       </c>
       <c r="C10">
@@ -2372,10 +2371,10 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>26</v>
       </c>
       <c r="C11">
@@ -2395,10 +2394,10 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>28</v>
       </c>
       <c r="C12">
@@ -2418,10 +2417,10 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>30</v>
       </c>
       <c r="C13">
@@ -2441,10 +2440,10 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>32</v>
       </c>
       <c r="C14">
@@ -2464,10 +2463,10 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>34</v>
       </c>
       <c r="C15">
@@ -2487,10 +2486,10 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>36</v>
       </c>
       <c r="C16">
@@ -2510,10 +2509,10 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>38</v>
       </c>
       <c r="C17">
@@ -2533,10 +2532,10 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>40</v>
       </c>
       <c r="C18">
@@ -2556,10 +2555,10 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+      <c r="A19" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>42</v>
       </c>
       <c r="C19">
@@ -2579,10 +2578,10 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>44</v>
       </c>
       <c r="C20">
@@ -2602,10 +2601,10 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+      <c r="A21" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
@@ -2625,10 +2624,10 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+      <c r="A22" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
         <v>48</v>
       </c>
       <c r="C22">
@@ -2648,10 +2647,10 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+      <c r="A23" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" t="s">
         <v>50</v>
       </c>
       <c r="C23">
@@ -2671,10 +2670,10 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
+      <c r="A24" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" t="s">
         <v>52</v>
       </c>
       <c r="C24">
@@ -2694,10 +2693,10 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+      <c r="A25" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" t="s">
         <v>54</v>
       </c>
       <c r="C25">
@@ -2717,10 +2716,10 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+      <c r="A26" t="s">
         <v>55</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" t="s">
         <v>56</v>
       </c>
       <c r="C26">
@@ -2740,10 +2739,10 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
+      <c r="A27" t="s">
         <v>57</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" t="s">
         <v>58</v>
       </c>
       <c r="C27">
@@ -2763,10 +2762,10 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
+      <c r="A28" t="s">
         <v>59</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" t="s">
         <v>60</v>
       </c>
       <c r="C28">
@@ -2786,10 +2785,10 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
+      <c r="A29" t="s">
         <v>61</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" t="s">
         <v>62</v>
       </c>
       <c r="C29">
@@ -2809,10 +2808,10 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
+      <c r="A30" t="s">
         <v>63</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" t="s">
         <v>64</v>
       </c>
       <c r="C30">
@@ -2832,10 +2831,10 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
+      <c r="A31" t="s">
         <v>65</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" t="s">
         <v>66</v>
       </c>
       <c r="C31">
@@ -2855,10 +2854,10 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
+      <c r="A32" t="s">
         <v>67</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" t="s">
         <v>68</v>
       </c>
       <c r="C32">
@@ -2878,10 +2877,10 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
+      <c r="A33" t="s">
         <v>69</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" t="s">
         <v>70</v>
       </c>
       <c r="C33">
@@ -2901,10 +2900,10 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
+      <c r="A34" t="s">
         <v>71</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" t="s">
         <v>72</v>
       </c>
       <c r="C34">
@@ -2924,10 +2923,10 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
+      <c r="A35" t="s">
         <v>73</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" t="s">
         <v>74</v>
       </c>
       <c r="C35">
@@ -2947,10 +2946,10 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
+      <c r="A36" t="s">
         <v>75</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" t="s">
         <v>76</v>
       </c>
       <c r="C36">
@@ -2970,10 +2969,10 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
+      <c r="A37" t="s">
         <v>77</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" t="s">
         <v>78</v>
       </c>
       <c r="C37">
@@ -2993,10 +2992,10 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
+      <c r="A38" t="s">
         <v>79</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" t="s">
         <v>80</v>
       </c>
       <c r="C38">
@@ -3016,10 +3015,10 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
+      <c r="A39" t="s">
         <v>81</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" t="s">
         <v>82</v>
       </c>
       <c r="C39">
@@ -3039,10 +3038,10 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
+      <c r="A40" t="s">
         <v>83</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" t="s">
         <v>84</v>
       </c>
       <c r="C40">
@@ -3062,10 +3061,10 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
+      <c r="A41" t="s">
         <v>85</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" t="s">
         <v>86</v>
       </c>
       <c r="C41">
@@ -3085,10 +3084,10 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
+      <c r="A42" t="s">
         <v>87</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" t="s">
         <v>88</v>
       </c>
       <c r="C42">
@@ -3108,10 +3107,10 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
+      <c r="A43" t="s">
         <v>89</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" t="s">
         <v>90</v>
       </c>
       <c r="C43">
@@ -3131,10 +3130,10 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
+      <c r="A44" t="s">
         <v>91</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" t="s">
         <v>92</v>
       </c>
       <c r="C44">
@@ -3154,10 +3153,10 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
+      <c r="A45" t="s">
         <v>93</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" t="s">
         <v>94</v>
       </c>
       <c r="C45">
@@ -3177,10 +3176,10 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
+      <c r="A46" t="s">
         <v>95</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" t="s">
         <v>96</v>
       </c>
       <c r="C46">
@@ -3200,10 +3199,10 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
+      <c r="A47" t="s">
         <v>97</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" t="s">
         <v>98</v>
       </c>
       <c r="C47">
@@ -3223,10 +3222,10 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
+      <c r="A48" t="s">
         <v>99</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" t="s">
         <v>100</v>
       </c>
       <c r="C48">
@@ -3246,10 +3245,10 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
+      <c r="A49" t="s">
         <v>101</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" t="s">
         <v>102</v>
       </c>
       <c r="C49">
@@ -3269,10 +3268,10 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
+      <c r="A50" t="s">
         <v>103</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" t="s">
         <v>104</v>
       </c>
       <c r="C50">
@@ -3292,10 +3291,10 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
+      <c r="A51" t="s">
         <v>105</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" t="s">
         <v>106</v>
       </c>
       <c r="C51">
@@ -3315,10 +3314,10 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
+      <c r="A52" t="s">
         <v>107</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" t="s">
         <v>108</v>
       </c>
       <c r="C52">
@@ -3338,10 +3337,10 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
+      <c r="A53" t="s">
         <v>109</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" t="s">
         <v>110</v>
       </c>
       <c r="C53">
@@ -3361,10 +3360,10 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
+      <c r="A54" t="s">
         <v>111</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" t="s">
         <v>112</v>
       </c>
       <c r="C54">
@@ -3384,10 +3383,10 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
+      <c r="A55" t="s">
         <v>113</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" t="s">
         <v>114</v>
       </c>
       <c r="C55">
@@ -3407,10 +3406,10 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
+      <c r="A56" t="s">
         <v>115</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" t="s">
         <v>116</v>
       </c>
       <c r="C56">
@@ -3430,10 +3429,10 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
+      <c r="A57" t="s">
         <v>117</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" t="s">
         <v>118</v>
       </c>
       <c r="C57">
@@ -3453,10 +3452,10 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
+      <c r="A58" t="s">
         <v>119</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" t="s">
         <v>120</v>
       </c>
       <c r="C58">
@@ -3476,10 +3475,10 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
+      <c r="A59" t="s">
         <v>121</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" t="s">
         <v>122</v>
       </c>
       <c r="C59">
@@ -3499,10 +3498,10 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
+      <c r="A60" t="s">
         <v>123</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" t="s">
         <v>124</v>
       </c>
       <c r="C60">
@@ -3522,10 +3521,10 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
+      <c r="A61" t="s">
         <v>125</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" t="s">
         <v>126</v>
       </c>
       <c r="C61">
@@ -3545,10 +3544,10 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
+      <c r="A62" t="s">
         <v>127</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" t="s">
         <v>128</v>
       </c>
       <c r="C62">
@@ -3568,10 +3567,10 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
+      <c r="A63" t="s">
         <v>129</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" t="s">
         <v>130</v>
       </c>
       <c r="C63">
@@ -3591,10 +3590,10 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
+      <c r="A64" t="s">
         <v>131</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" t="s">
         <v>132</v>
       </c>
       <c r="C64">
@@ -3614,10 +3613,10 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
+      <c r="A65" t="s">
         <v>133</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" t="s">
         <v>134</v>
       </c>
       <c r="C65">
@@ -3637,10 +3636,10 @@
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
+      <c r="A66" t="s">
         <v>135</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" t="s">
         <v>136</v>
       </c>
       <c r="C66">
@@ -3660,10 +3659,10 @@
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" s="1" t="s">
+      <c r="A67" t="s">
         <v>137</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" t="s">
         <v>138</v>
       </c>
       <c r="C67">
@@ -3683,10 +3682,10 @@
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" s="1" t="s">
+      <c r="A68" t="s">
         <v>139</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" t="s">
         <v>140</v>
       </c>
       <c r="C68">
@@ -3706,10 +3705,10 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="1" t="s">
+      <c r="A69" t="s">
         <v>141</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" t="s">
         <v>142</v>
       </c>
       <c r="C69">
@@ -3729,10 +3728,10 @@
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" s="1" t="s">
+      <c r="A70" t="s">
         <v>143</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B70" t="s">
         <v>144</v>
       </c>
       <c r="C70">
@@ -3752,10 +3751,10 @@
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71" s="1" t="s">
+      <c r="A71" t="s">
         <v>145</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" t="s">
         <v>146</v>
       </c>
       <c r="C71">
@@ -3775,10 +3774,10 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="1" t="s">
+      <c r="A72" t="s">
         <v>147</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" t="s">
         <v>148</v>
       </c>
       <c r="C72">
@@ -3798,10 +3797,10 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="1" t="s">
+      <c r="A73" t="s">
         <v>149</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B73" t="s">
         <v>150</v>
       </c>
       <c r="C73">
@@ -3821,10 +3820,10 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="1" t="s">
+      <c r="A74" t="s">
         <v>151</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B74" t="s">
         <v>152</v>
       </c>
       <c r="C74">
@@ -3844,10 +3843,10 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="1" t="s">
+      <c r="A75" t="s">
         <v>153</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B75" t="s">
         <v>154</v>
       </c>
       <c r="C75">
@@ -3867,10 +3866,10 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="1" t="s">
+      <c r="A76" t="s">
         <v>155</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B76" t="s">
         <v>156</v>
       </c>
       <c r="C76">
@@ -3890,10 +3889,10 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="1" t="s">
+      <c r="A77" t="s">
         <v>157</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B77" t="s">
         <v>158</v>
       </c>
       <c r="C77">
@@ -3913,10 +3912,10 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="1" t="s">
+      <c r="A78" t="s">
         <v>159</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B78" t="s">
         <v>160</v>
       </c>
       <c r="C78">
@@ -3936,10 +3935,10 @@
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A79" s="1" t="s">
+      <c r="A79" t="s">
         <v>161</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B79" t="s">
         <v>162</v>
       </c>
       <c r="C79">
@@ -3959,10 +3958,10 @@
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A80" s="1" t="s">
+      <c r="A80" t="s">
         <v>163</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B80" t="s">
         <v>164</v>
       </c>
       <c r="C80">
@@ -3982,10 +3981,10 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81" s="1" t="s">
+      <c r="A81" t="s">
         <v>165</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B81" t="s">
         <v>166</v>
       </c>
       <c r="C81">
@@ -4005,10 +4004,10 @@
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82" s="1" t="s">
+      <c r="A82" t="s">
         <v>167</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B82" t="s">
         <v>168</v>
       </c>
       <c r="C82">
@@ -4028,10 +4027,10 @@
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A83" s="1" t="s">
+      <c r="A83" t="s">
         <v>169</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B83" t="s">
         <v>170</v>
       </c>
       <c r="C83">
@@ -4051,10 +4050,10 @@
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A84" s="1" t="s">
+      <c r="A84" t="s">
         <v>171</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B84" t="s">
         <v>172</v>
       </c>
       <c r="C84">
@@ -4074,10 +4073,10 @@
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A85" s="1" t="s">
+      <c r="A85" t="s">
         <v>173</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B85" t="s">
         <v>174</v>
       </c>
       <c r="C85">
@@ -4097,10 +4096,10 @@
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A86" s="1" t="s">
+      <c r="A86" t="s">
         <v>175</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B86" t="s">
         <v>176</v>
       </c>
       <c r="C86">
@@ -4120,10 +4119,10 @@
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A87" s="1" t="s">
+      <c r="A87" t="s">
         <v>177</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B87" t="s">
         <v>178</v>
       </c>
       <c r="C87">
@@ -4143,10 +4142,10 @@
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A88" s="1" t="s">
+      <c r="A88" t="s">
         <v>179</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B88" t="s">
         <v>180</v>
       </c>
       <c r="C88">
@@ -4166,10 +4165,10 @@
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A89" s="1" t="s">
+      <c r="A89" t="s">
         <v>181</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B89" t="s">
         <v>182</v>
       </c>
       <c r="C89">
@@ -4189,10 +4188,10 @@
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A90" s="1" t="s">
+      <c r="A90" t="s">
         <v>183</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B90" t="s">
         <v>184</v>
       </c>
       <c r="C90">
@@ -4212,10 +4211,10 @@
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A91" s="1" t="s">
+      <c r="A91" t="s">
         <v>185</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B91" t="s">
         <v>186</v>
       </c>
       <c r="C91">
@@ -4235,10 +4234,10 @@
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A92" s="1" t="s">
+      <c r="A92" t="s">
         <v>187</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B92" t="s">
         <v>188</v>
       </c>
       <c r="C92">
@@ -4258,10 +4257,10 @@
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A93" s="1" t="s">
+      <c r="A93" t="s">
         <v>189</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B93" t="s">
         <v>190</v>
       </c>
       <c r="C93">
@@ -4281,10 +4280,10 @@
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A94" s="1" t="s">
+      <c r="A94" t="s">
         <v>191</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B94" t="s">
         <v>192</v>
       </c>
       <c r="C94">
@@ -4304,10 +4303,10 @@
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A95" s="1" t="s">
+      <c r="A95" t="s">
         <v>193</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B95" t="s">
         <v>194</v>
       </c>
       <c r="C95">
@@ -4327,10 +4326,10 @@
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A96" s="1" t="s">
+      <c r="A96" t="s">
         <v>195</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B96" t="s">
         <v>196</v>
       </c>
       <c r="C96">
@@ -4350,10 +4349,10 @@
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A97" s="1" t="s">
+      <c r="A97" t="s">
         <v>197</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B97" t="s">
         <v>198</v>
       </c>
       <c r="C97">
@@ -4373,10 +4372,10 @@
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A98" s="1" t="s">
+      <c r="A98" t="s">
         <v>199</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B98" t="s">
         <v>200</v>
       </c>
       <c r="C98">
@@ -4396,10 +4395,10 @@
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A99" s="1" t="s">
+      <c r="A99" t="s">
         <v>201</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B99" t="s">
         <v>202</v>
       </c>
       <c r="C99">
@@ -4419,10 +4418,10 @@
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A100" s="1" t="s">
+      <c r="A100" t="s">
         <v>203</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B100" t="s">
         <v>204</v>
       </c>
       <c r="C100">
@@ -4442,10 +4441,10 @@
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A101" s="1" t="s">
+      <c r="A101" t="s">
         <v>205</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B101" t="s">
         <v>206</v>
       </c>
       <c r="C101">
@@ -4465,10 +4464,10 @@
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A102" s="1" t="s">
+      <c r="A102" t="s">
         <v>207</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B102" t="s">
         <v>208</v>
       </c>
       <c r="C102">
@@ -4488,10 +4487,10 @@
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A103" s="1" t="s">
+      <c r="A103" t="s">
         <v>209</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B103" t="s">
         <v>210</v>
       </c>
       <c r="C103">
@@ -4511,10 +4510,10 @@
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A104" s="1" t="s">
+      <c r="A104" t="s">
         <v>211</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="B104" t="s">
         <v>212</v>
       </c>
       <c r="C104">
@@ -4534,10 +4533,10 @@
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A105" s="1" t="s">
+      <c r="A105" t="s">
         <v>213</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="B105" t="s">
         <v>214</v>
       </c>
       <c r="C105">
@@ -4557,10 +4556,10 @@
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A106" s="1" t="s">
+      <c r="A106" t="s">
         <v>215</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="B106" t="s">
         <v>216</v>
       </c>
       <c r="C106">
@@ -4580,10 +4579,10 @@
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A107" s="1" t="s">
+      <c r="A107" t="s">
         <v>217</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="B107" t="s">
         <v>218</v>
       </c>
       <c r="C107">
@@ -4603,10 +4602,10 @@
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A108" s="1" t="s">
+      <c r="A108" t="s">
         <v>219</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="B108" t="s">
         <v>220</v>
       </c>
       <c r="C108">
@@ -4626,10 +4625,10 @@
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A109" s="1" t="s">
+      <c r="A109" t="s">
         <v>221</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B109" t="s">
         <v>222</v>
       </c>
       <c r="C109">
@@ -4649,10 +4648,10 @@
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A110" s="1" t="s">
+      <c r="A110" t="s">
         <v>223</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="B110" t="s">
         <v>224</v>
       </c>
       <c r="C110">
@@ -4672,10 +4671,10 @@
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A111" s="1" t="s">
+      <c r="A111" t="s">
         <v>225</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="B111" t="s">
         <v>226</v>
       </c>
       <c r="C111">
@@ -4695,10 +4694,10 @@
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A112" s="1" t="s">
+      <c r="A112" t="s">
         <v>227</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="B112" t="s">
         <v>228</v>
       </c>
       <c r="C112">
@@ -4718,10 +4717,10 @@
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A113" s="1" t="s">
+      <c r="A113" t="s">
         <v>229</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="B113" t="s">
         <v>230</v>
       </c>
       <c r="C113">
@@ -4741,10 +4740,10 @@
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A114" s="1" t="s">
+      <c r="A114" t="s">
         <v>231</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="B114" t="s">
         <v>232</v>
       </c>
       <c r="C114">
@@ -4764,10 +4763,10 @@
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A115" s="1" t="s">
+      <c r="A115" t="s">
         <v>233</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="B115" t="s">
         <v>234</v>
       </c>
       <c r="C115">
@@ -4787,10 +4786,10 @@
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A116" s="1" t="s">
+      <c r="A116" t="s">
         <v>235</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="B116" t="s">
         <v>236</v>
       </c>
       <c r="C116">
@@ -4810,10 +4809,10 @@
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A117" s="1" t="s">
+      <c r="A117" t="s">
         <v>237</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="B117" t="s">
         <v>238</v>
       </c>
       <c r="C117">
@@ -4833,10 +4832,10 @@
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A118" s="1" t="s">
+      <c r="A118" t="s">
         <v>239</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="B118" t="s">
         <v>240</v>
       </c>
       <c r="C118">
@@ -4856,10 +4855,10 @@
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A119" s="1" t="s">
+      <c r="A119" t="s">
         <v>241</v>
       </c>
-      <c r="B119" s="1" t="s">
+      <c r="B119" t="s">
         <v>242</v>
       </c>
       <c r="C119">
@@ -4879,10 +4878,10 @@
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A120" s="1" t="s">
+      <c r="A120" t="s">
         <v>243</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="B120" t="s">
         <v>244</v>
       </c>
       <c r="C120">
@@ -4902,10 +4901,10 @@
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A121" s="1" t="s">
+      <c r="A121" t="s">
         <v>245</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="B121" t="s">
         <v>246</v>
       </c>
       <c r="C121">
@@ -4925,10 +4924,10 @@
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A122" s="1" t="s">
+      <c r="A122" t="s">
         <v>195</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="B122" t="s">
         <v>196</v>
       </c>
       <c r="C122">
@@ -4948,10 +4947,10 @@
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A123" s="1" t="s">
+      <c r="A123" t="s">
         <v>247</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="B123" t="s">
         <v>248</v>
       </c>
       <c r="C123">
@@ -4971,10 +4970,10 @@
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A124" s="1" t="s">
+      <c r="A124" t="s">
         <v>249</v>
       </c>
-      <c r="B124" s="1" t="s">
+      <c r="B124" t="s">
         <v>250</v>
       </c>
       <c r="C124">
@@ -4994,10 +4993,10 @@
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A125" s="1" t="s">
+      <c r="A125" t="s">
         <v>251</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="B125" t="s">
         <v>252</v>
       </c>
       <c r="C125">
@@ -5017,10 +5016,10 @@
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A126" s="1" t="s">
+      <c r="A126" t="s">
         <v>253</v>
       </c>
-      <c r="B126" s="1" t="s">
+      <c r="B126" t="s">
         <v>254</v>
       </c>
       <c r="C126">
@@ -5040,10 +5039,10 @@
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A127" s="1" t="s">
+      <c r="A127" t="s">
         <v>255</v>
       </c>
-      <c r="B127" s="1" t="s">
+      <c r="B127" t="s">
         <v>256</v>
       </c>
       <c r="C127">
@@ -5063,10 +5062,10 @@
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A128" s="1" t="s">
+      <c r="A128" t="s">
         <v>257</v>
       </c>
-      <c r="B128" s="1" t="s">
+      <c r="B128" t="s">
         <v>258</v>
       </c>
       <c r="C128">
@@ -5086,10 +5085,10 @@
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A129" s="1" t="s">
+      <c r="A129" t="s">
         <v>259</v>
       </c>
-      <c r="B129" s="1" t="s">
+      <c r="B129" t="s">
         <v>260</v>
       </c>
       <c r="C129">
@@ -5109,10 +5108,10 @@
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A130" s="1" t="s">
+      <c r="A130" t="s">
         <v>261</v>
       </c>
-      <c r="B130" s="1" t="s">
+      <c r="B130" t="s">
         <v>262</v>
       </c>
       <c r="C130">
@@ -5132,10 +5131,10 @@
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A131" s="1" t="s">
+      <c r="A131" t="s">
         <v>263</v>
       </c>
-      <c r="B131" s="1" t="s">
+      <c r="B131" t="s">
         <v>264</v>
       </c>
       <c r="C131">
@@ -5155,10 +5154,10 @@
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A132" s="1" t="s">
+      <c r="A132" t="s">
         <v>265</v>
       </c>
-      <c r="B132" s="1" t="s">
+      <c r="B132" t="s">
         <v>266</v>
       </c>
       <c r="C132">
@@ -5178,10 +5177,10 @@
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A133" s="1" t="s">
+      <c r="A133" t="s">
         <v>267</v>
       </c>
-      <c r="B133" s="1" t="s">
+      <c r="B133" t="s">
         <v>268</v>
       </c>
       <c r="C133">
@@ -5201,10 +5200,10 @@
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A134" s="1" t="s">
+      <c r="A134" t="s">
         <v>269</v>
       </c>
-      <c r="B134" s="1" t="s">
+      <c r="B134" t="s">
         <v>270</v>
       </c>
       <c r="C134">
@@ -5224,10 +5223,10 @@
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A135" s="1" t="s">
+      <c r="A135" t="s">
         <v>271</v>
       </c>
-      <c r="B135" s="1" t="s">
+      <c r="B135" t="s">
         <v>272</v>
       </c>
       <c r="C135">
@@ -5247,10 +5246,10 @@
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A136" s="1" t="s">
+      <c r="A136" t="s">
         <v>273</v>
       </c>
-      <c r="B136" s="1" t="s">
+      <c r="B136" t="s">
         <v>274</v>
       </c>
       <c r="C136">
@@ -5270,10 +5269,10 @@
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A137" s="1" t="s">
+      <c r="A137" t="s">
         <v>275</v>
       </c>
-      <c r="B137" s="1" t="s">
+      <c r="B137" t="s">
         <v>276</v>
       </c>
       <c r="C137">
@@ -5293,10 +5292,10 @@
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A138" s="1" t="s">
+      <c r="A138" t="s">
         <v>277</v>
       </c>
-      <c r="B138" s="1" t="s">
+      <c r="B138" t="s">
         <v>278</v>
       </c>
       <c r="C138">
@@ -5316,10 +5315,10 @@
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A139" s="1" t="s">
+      <c r="A139" t="s">
         <v>279</v>
       </c>
-      <c r="B139" s="1" t="s">
+      <c r="B139" t="s">
         <v>280</v>
       </c>
       <c r="C139">
@@ -5339,10 +5338,10 @@
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A140" s="1" t="s">
+      <c r="A140" t="s">
         <v>281</v>
       </c>
-      <c r="B140" s="1" t="s">
+      <c r="B140" t="s">
         <v>282</v>
       </c>
       <c r="C140">
@@ -5362,10 +5361,10 @@
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A141" s="1" t="s">
+      <c r="A141" t="s">
         <v>283</v>
       </c>
-      <c r="B141" s="1" t="s">
+      <c r="B141" t="s">
         <v>284</v>
       </c>
       <c r="C141">
@@ -5385,10 +5384,10 @@
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A142" s="1" t="s">
+      <c r="A142" t="s">
         <v>285</v>
       </c>
-      <c r="B142" s="1" t="s">
+      <c r="B142" t="s">
         <v>286</v>
       </c>
       <c r="C142">
@@ -5408,10 +5407,10 @@
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A143" s="1" t="s">
+      <c r="A143" t="s">
         <v>287</v>
       </c>
-      <c r="B143" s="1" t="s">
+      <c r="B143" t="s">
         <v>288</v>
       </c>
       <c r="C143">
@@ -5431,10 +5430,10 @@
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A144" s="1" t="s">
+      <c r="A144" t="s">
         <v>289</v>
       </c>
-      <c r="B144" s="1" t="s">
+      <c r="B144" t="s">
         <v>290</v>
       </c>
       <c r="C144">
@@ -5454,10 +5453,10 @@
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A145" s="1" t="s">
+      <c r="A145" t="s">
         <v>291</v>
       </c>
-      <c r="B145" s="1" t="s">
+      <c r="B145" t="s">
         <v>292</v>
       </c>
       <c r="C145">
@@ -5477,10 +5476,10 @@
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A146" s="1" t="s">
+      <c r="A146" t="s">
         <v>293</v>
       </c>
-      <c r="B146" s="1" t="s">
+      <c r="B146" t="s">
         <v>294</v>
       </c>
       <c r="C146">
@@ -5500,10 +5499,10 @@
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A147" s="1" t="s">
+      <c r="A147" t="s">
         <v>295</v>
       </c>
-      <c r="B147" s="1" t="s">
+      <c r="B147" t="s">
         <v>296</v>
       </c>
       <c r="C147">
@@ -5523,10 +5522,10 @@
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A148" s="1" t="s">
+      <c r="A148" t="s">
         <v>297</v>
       </c>
-      <c r="B148" s="1" t="s">
+      <c r="B148" t="s">
         <v>298</v>
       </c>
       <c r="C148">
@@ -5546,10 +5545,10 @@
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A149" s="1" t="s">
+      <c r="A149" t="s">
         <v>299</v>
       </c>
-      <c r="B149" s="1" t="s">
+      <c r="B149" t="s">
         <v>300</v>
       </c>
       <c r="C149">
@@ -5569,10 +5568,10 @@
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A150" s="1" t="s">
+      <c r="A150" t="s">
         <v>301</v>
       </c>
-      <c r="B150" s="1" t="s">
+      <c r="B150" t="s">
         <v>302</v>
       </c>
       <c r="C150">
@@ -5592,10 +5591,10 @@
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A151" s="1" t="s">
+      <c r="A151" t="s">
         <v>303</v>
       </c>
-      <c r="B151" s="1" t="s">
+      <c r="B151" t="s">
         <v>304</v>
       </c>
       <c r="C151">
@@ -5615,10 +5614,10 @@
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A152" s="1" t="s">
+      <c r="A152" t="s">
         <v>305</v>
       </c>
-      <c r="B152" s="1" t="s">
+      <c r="B152" t="s">
         <v>306</v>
       </c>
       <c r="C152">
@@ -5638,10 +5637,10 @@
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A153" s="1" t="s">
+      <c r="A153" t="s">
         <v>307</v>
       </c>
-      <c r="B153" s="1" t="s">
+      <c r="B153" t="s">
         <v>308</v>
       </c>
       <c r="C153">
@@ -5661,10 +5660,10 @@
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A154" s="1" t="s">
+      <c r="A154" t="s">
         <v>309</v>
       </c>
-      <c r="B154" s="1" t="s">
+      <c r="B154" t="s">
         <v>310</v>
       </c>
       <c r="C154">
@@ -5684,10 +5683,10 @@
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A155" s="1" t="s">
+      <c r="A155" t="s">
         <v>311</v>
       </c>
-      <c r="B155" s="1" t="s">
+      <c r="B155" t="s">
         <v>312</v>
       </c>
       <c r="C155">
@@ -5707,10 +5706,10 @@
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A156" s="1" t="s">
+      <c r="A156" t="s">
         <v>313</v>
       </c>
-      <c r="B156" s="1" t="s">
+      <c r="B156" t="s">
         <v>314</v>
       </c>
       <c r="C156">
@@ -5730,10 +5729,10 @@
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A157" s="1" t="s">
+      <c r="A157" t="s">
         <v>315</v>
       </c>
-      <c r="B157" s="1" t="s">
+      <c r="B157" t="s">
         <v>316</v>
       </c>
       <c r="C157">
@@ -5753,10 +5752,10 @@
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A158" s="1" t="s">
+      <c r="A158" t="s">
         <v>317</v>
       </c>
-      <c r="B158" s="1" t="s">
+      <c r="B158" t="s">
         <v>318</v>
       </c>
       <c r="C158">
@@ -5776,10 +5775,10 @@
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A159" s="1" t="s">
+      <c r="A159" t="s">
         <v>319</v>
       </c>
-      <c r="B159" s="1" t="s">
+      <c r="B159" t="s">
         <v>320</v>
       </c>
       <c r="C159">
@@ -5799,10 +5798,10 @@
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A160" s="1" t="s">
+      <c r="A160" t="s">
         <v>321</v>
       </c>
-      <c r="B160" s="1" t="s">
+      <c r="B160" t="s">
         <v>322</v>
       </c>
       <c r="C160">
@@ -5822,10 +5821,10 @@
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A161" s="1" t="s">
+      <c r="A161" t="s">
         <v>323</v>
       </c>
-      <c r="B161" s="1" t="s">
+      <c r="B161" t="s">
         <v>324</v>
       </c>
       <c r="C161">
@@ -5845,10 +5844,10 @@
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A162" s="1" t="s">
+      <c r="A162" t="s">
         <v>325</v>
       </c>
-      <c r="B162" s="1" t="s">
+      <c r="B162" t="s">
         <v>326</v>
       </c>
       <c r="C162">
@@ -5868,10 +5867,10 @@
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A163" s="1" t="s">
+      <c r="A163" t="s">
         <v>327</v>
       </c>
-      <c r="B163" s="1" t="s">
+      <c r="B163" t="s">
         <v>328</v>
       </c>
       <c r="C163">
@@ -5891,10 +5890,10 @@
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A164" s="1" t="s">
+      <c r="A164" t="s">
         <v>329</v>
       </c>
-      <c r="B164" s="1" t="s">
+      <c r="B164" t="s">
         <v>330</v>
       </c>
       <c r="C164">
@@ -5914,10 +5913,10 @@
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A165" s="1" t="s">
+      <c r="A165" t="s">
         <v>331</v>
       </c>
-      <c r="B165" s="1" t="s">
+      <c r="B165" t="s">
         <v>332</v>
       </c>
       <c r="C165">
@@ -5937,10 +5936,10 @@
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A166" s="1" t="s">
+      <c r="A166" t="s">
         <v>333</v>
       </c>
-      <c r="B166" s="1" t="s">
+      <c r="B166" t="s">
         <v>334</v>
       </c>
       <c r="C166">
@@ -5960,10 +5959,10 @@
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A167" s="1" t="s">
+      <c r="A167" t="s">
         <v>161</v>
       </c>
-      <c r="B167" s="1" t="s">
+      <c r="B167" t="s">
         <v>162</v>
       </c>
       <c r="C167">
@@ -5983,10 +5982,10 @@
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A168" s="1" t="s">
+      <c r="A168" t="s">
         <v>273</v>
       </c>
-      <c r="B168" s="1" t="s">
+      <c r="B168" t="s">
         <v>274</v>
       </c>
       <c r="C168">
@@ -6006,10 +6005,10 @@
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A169" s="1" t="s">
+      <c r="A169" t="s">
         <v>335</v>
       </c>
-      <c r="B169" s="1" t="s">
+      <c r="B169" t="s">
         <v>336</v>
       </c>
       <c r="C169">
@@ -6029,10 +6028,10 @@
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A170" s="1" t="s">
+      <c r="A170" t="s">
         <v>337</v>
       </c>
-      <c r="B170" s="1" t="s">
+      <c r="B170" t="s">
         <v>338</v>
       </c>
       <c r="C170">
@@ -6052,10 +6051,10 @@
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A171" s="1" t="s">
+      <c r="A171" t="s">
         <v>339</v>
       </c>
-      <c r="B171" s="1" t="s">
+      <c r="B171" t="s">
         <v>340</v>
       </c>
       <c r="C171">
@@ -6075,10 +6074,10 @@
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A172" s="1" t="s">
+      <c r="A172" t="s">
         <v>341</v>
       </c>
-      <c r="B172" s="1" t="s">
+      <c r="B172" t="s">
         <v>342</v>
       </c>
       <c r="C172">
@@ -6098,10 +6097,10 @@
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A173" s="1" t="s">
+      <c r="A173" t="s">
         <v>343</v>
       </c>
-      <c r="B173" s="1" t="s">
+      <c r="B173" t="s">
         <v>344</v>
       </c>
       <c r="C173">
@@ -6121,10 +6120,10 @@
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A174" s="1" t="s">
+      <c r="A174" t="s">
         <v>345</v>
       </c>
-      <c r="B174" s="1" t="s">
+      <c r="B174" t="s">
         <v>346</v>
       </c>
       <c r="C174">
@@ -6144,10 +6143,10 @@
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A175" s="1" t="s">
+      <c r="A175" t="s">
         <v>347</v>
       </c>
-      <c r="B175" s="1" t="s">
+      <c r="B175" t="s">
         <v>348</v>
       </c>
       <c r="C175">
@@ -6167,10 +6166,10 @@
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A176" s="1" t="s">
+      <c r="A176" t="s">
         <v>349</v>
       </c>
-      <c r="B176" s="1" t="s">
+      <c r="B176" t="s">
         <v>350</v>
       </c>
       <c r="C176">
@@ -6190,10 +6189,10 @@
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A177" s="1" t="s">
+      <c r="A177" t="s">
         <v>351</v>
       </c>
-      <c r="B177" s="1" t="s">
+      <c r="B177" t="s">
         <v>352</v>
       </c>
       <c r="C177">
@@ -6213,10 +6212,10 @@
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A178" s="1" t="s">
+      <c r="A178" t="s">
         <v>353</v>
       </c>
-      <c r="B178" s="1" t="s">
+      <c r="B178" t="s">
         <v>354</v>
       </c>
       <c r="C178">
@@ -6236,10 +6235,10 @@
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A179" s="1" t="s">
+      <c r="A179" t="s">
         <v>355</v>
       </c>
-      <c r="B179" s="1" t="s">
+      <c r="B179" t="s">
         <v>356</v>
       </c>
       <c r="C179">
@@ -6259,10 +6258,10 @@
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A180" s="1" t="s">
+      <c r="A180" t="s">
         <v>357</v>
       </c>
-      <c r="B180" s="1" t="s">
+      <c r="B180" t="s">
         <v>358</v>
       </c>
       <c r="C180">
@@ -6282,10 +6281,10 @@
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A181" s="1" t="s">
+      <c r="A181" t="s">
         <v>359</v>
       </c>
-      <c r="B181" s="1" t="s">
+      <c r="B181" t="s">
         <v>360</v>
       </c>
       <c r="C181">
@@ -6305,10 +6304,10 @@
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A182" s="1" t="s">
+      <c r="A182" t="s">
         <v>361</v>
       </c>
-      <c r="B182" s="1" t="s">
+      <c r="B182" t="s">
         <v>362</v>
       </c>
       <c r="C182">
@@ -6328,10 +6327,10 @@
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A183" s="1" t="s">
+      <c r="A183" t="s">
         <v>363</v>
       </c>
-      <c r="B183" s="1" t="s">
+      <c r="B183" t="s">
         <v>364</v>
       </c>
       <c r="C183">
@@ -6351,10 +6350,10 @@
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A184" s="1" t="s">
+      <c r="A184" t="s">
         <v>365</v>
       </c>
-      <c r="B184" s="1" t="s">
+      <c r="B184" t="s">
         <v>366</v>
       </c>
       <c r="C184">
@@ -6374,10 +6373,10 @@
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A185" s="1" t="s">
+      <c r="A185" t="s">
         <v>367</v>
       </c>
-      <c r="B185" s="1" t="s">
+      <c r="B185" t="s">
         <v>368</v>
       </c>
       <c r="C185">
@@ -6397,10 +6396,10 @@
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A186" s="1" t="s">
+      <c r="A186" t="s">
         <v>369</v>
       </c>
-      <c r="B186" s="1" t="s">
+      <c r="B186" t="s">
         <v>370</v>
       </c>
       <c r="C186">
@@ -6420,10 +6419,10 @@
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A187" s="1" t="s">
+      <c r="A187" t="s">
         <v>371</v>
       </c>
-      <c r="B187" s="1" t="s">
+      <c r="B187" t="s">
         <v>372</v>
       </c>
       <c r="C187">
@@ -6443,10 +6442,10 @@
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A188" s="1" t="s">
+      <c r="A188" t="s">
         <v>373</v>
       </c>
-      <c r="B188" s="1" t="s">
+      <c r="B188" t="s">
         <v>374</v>
       </c>
       <c r="C188">
@@ -6466,10 +6465,10 @@
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A189" s="1" t="s">
+      <c r="A189" t="s">
         <v>375</v>
       </c>
-      <c r="B189" s="1" t="s">
+      <c r="B189" t="s">
         <v>376</v>
       </c>
       <c r="C189">
@@ -6489,10 +6488,10 @@
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A190" s="1" t="s">
+      <c r="A190" t="s">
         <v>377</v>
       </c>
-      <c r="B190" s="1" t="s">
+      <c r="B190" t="s">
         <v>378</v>
       </c>
       <c r="C190">
@@ -6512,10 +6511,10 @@
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A191" s="1" t="s">
+      <c r="A191" t="s">
         <v>379</v>
       </c>
-      <c r="B191" s="1" t="s">
+      <c r="B191" t="s">
         <v>380</v>
       </c>
       <c r="C191">
@@ -6535,10 +6534,10 @@
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A192" s="1" t="s">
+      <c r="A192" t="s">
         <v>381</v>
       </c>
-      <c r="B192" s="1" t="s">
+      <c r="B192" t="s">
         <v>382</v>
       </c>
       <c r="C192">
@@ -6558,10 +6557,10 @@
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A193" s="1" t="s">
+      <c r="A193" t="s">
         <v>383</v>
       </c>
-      <c r="B193" s="1" t="s">
+      <c r="B193" t="s">
         <v>384</v>
       </c>
       <c r="C193">
@@ -6581,10 +6580,10 @@
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A194" s="1" t="s">
+      <c r="A194" t="s">
         <v>385</v>
       </c>
-      <c r="B194" s="1" t="s">
+      <c r="B194" t="s">
         <v>386</v>
       </c>
       <c r="C194">
@@ -6604,10 +6603,10 @@
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A195" s="1" t="s">
+      <c r="A195" t="s">
         <v>387</v>
       </c>
-      <c r="B195" s="1" t="s">
+      <c r="B195" t="s">
         <v>388</v>
       </c>
       <c r="C195">
@@ -6627,10 +6626,10 @@
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A196" s="1" t="s">
+      <c r="A196" t="s">
         <v>389</v>
       </c>
-      <c r="B196" s="1" t="s">
+      <c r="B196" t="s">
         <v>390</v>
       </c>
       <c r="C196">
@@ -6650,10 +6649,10 @@
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A197" s="1" t="s">
+      <c r="A197" t="s">
         <v>391</v>
       </c>
-      <c r="B197" s="1" t="s">
+      <c r="B197" t="s">
         <v>392</v>
       </c>
       <c r="C197">
@@ -6673,10 +6672,10 @@
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A198" s="1" t="s">
+      <c r="A198" t="s">
         <v>393</v>
       </c>
-      <c r="B198" s="1" t="s">
+      <c r="B198" t="s">
         <v>394</v>
       </c>
       <c r="C198">
@@ -6696,10 +6695,10 @@
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A199" s="1" t="s">
+      <c r="A199" t="s">
         <v>395</v>
       </c>
-      <c r="B199" s="1" t="s">
+      <c r="B199" t="s">
         <v>396</v>
       </c>
       <c r="C199">
@@ -6719,10 +6718,10 @@
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A200" s="1" t="s">
+      <c r="A200" t="s">
         <v>397</v>
       </c>
-      <c r="B200" s="1" t="s">
+      <c r="B200" t="s">
         <v>398</v>
       </c>
       <c r="C200">
@@ -6742,10 +6741,10 @@
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A201" s="1" t="s">
+      <c r="A201" t="s">
         <v>399</v>
       </c>
-      <c r="B201" s="1" t="s">
+      <c r="B201" t="s">
         <v>400</v>
       </c>
       <c r="C201">
@@ -6765,10 +6764,10 @@
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A202" s="1" t="s">
+      <c r="A202" t="s">
         <v>401</v>
       </c>
-      <c r="B202" s="1" t="s">
+      <c r="B202" t="s">
         <v>402</v>
       </c>
       <c r="C202">
@@ -6788,10 +6787,10 @@
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A203" s="1" t="s">
+      <c r="A203" t="s">
         <v>293</v>
       </c>
-      <c r="B203" s="1" t="s">
+      <c r="B203" t="s">
         <v>294</v>
       </c>
       <c r="C203">
@@ -6811,10 +6810,10 @@
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A204" s="1" t="s">
+      <c r="A204" t="s">
         <v>403</v>
       </c>
-      <c r="B204" s="1" t="s">
+      <c r="B204" t="s">
         <v>404</v>
       </c>
       <c r="C204">
@@ -6834,10 +6833,10 @@
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A205" s="1" t="s">
+      <c r="A205" t="s">
         <v>405</v>
       </c>
-      <c r="B205" s="1" t="s">
+      <c r="B205" t="s">
         <v>406</v>
       </c>
       <c r="C205">
@@ -6857,10 +6856,10 @@
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A206" s="1" t="s">
+      <c r="A206" t="s">
         <v>407</v>
       </c>
-      <c r="B206" s="1" t="s">
+      <c r="B206" t="s">
         <v>408</v>
       </c>
       <c r="C206">
@@ -6880,10 +6879,10 @@
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A207" s="1" t="s">
+      <c r="A207" t="s">
         <v>409</v>
       </c>
-      <c r="B207" s="1" t="s">
+      <c r="B207" t="s">
         <v>410</v>
       </c>
       <c r="C207">
@@ -6903,10 +6902,10 @@
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A208" s="1" t="s">
+      <c r="A208" t="s">
         <v>411</v>
       </c>
-      <c r="B208" s="1" t="s">
+      <c r="B208" t="s">
         <v>412</v>
       </c>
       <c r="C208">
@@ -6926,10 +6925,10 @@
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A209" s="1" t="s">
+      <c r="A209" t="s">
         <v>413</v>
       </c>
-      <c r="B209" s="1" t="s">
+      <c r="B209" t="s">
         <v>414</v>
       </c>
       <c r="C209">
@@ -6949,10 +6948,10 @@
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A210" s="1" t="s">
+      <c r="A210" t="s">
         <v>415</v>
       </c>
-      <c r="B210" s="1" t="s">
+      <c r="B210" t="s">
         <v>416</v>
       </c>
       <c r="C210">
@@ -6972,10 +6971,10 @@
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A211" s="1" t="s">
+      <c r="A211" t="s">
         <v>351</v>
       </c>
-      <c r="B211" s="1" t="s">
+      <c r="B211" t="s">
         <v>352</v>
       </c>
       <c r="C211">
@@ -6995,10 +6994,10 @@
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A212" s="1" t="s">
+      <c r="A212" t="s">
         <v>417</v>
       </c>
-      <c r="B212" s="1" t="s">
+      <c r="B212" t="s">
         <v>418</v>
       </c>
       <c r="C212">
@@ -7018,10 +7017,10 @@
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A213" s="1" t="s">
+      <c r="A213" t="s">
         <v>419</v>
       </c>
-      <c r="B213" s="1" t="s">
+      <c r="B213" t="s">
         <v>420</v>
       </c>
       <c r="C213">
@@ -7041,10 +7040,10 @@
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A214" s="1" t="s">
+      <c r="A214" t="s">
         <v>421</v>
       </c>
-      <c r="B214" s="1" t="s">
+      <c r="B214" t="s">
         <v>422</v>
       </c>
       <c r="C214">
@@ -7064,10 +7063,10 @@
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A215" s="1" t="s">
+      <c r="A215" t="s">
         <v>413</v>
       </c>
-      <c r="B215" s="1" t="s">
+      <c r="B215" t="s">
         <v>414</v>
       </c>
       <c r="C215">
@@ -7087,10 +7086,10 @@
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A216" s="1" t="s">
+      <c r="A216" t="s">
         <v>423</v>
       </c>
-      <c r="B216" s="1" t="s">
+      <c r="B216" t="s">
         <v>424</v>
       </c>
       <c r="C216">
@@ -7110,10 +7109,10 @@
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A217" s="1" t="s">
+      <c r="A217" t="s">
         <v>425</v>
       </c>
-      <c r="B217" s="1" t="s">
+      <c r="B217" t="s">
         <v>426</v>
       </c>
       <c r="C217">
@@ -7133,10 +7132,10 @@
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A218" s="1" t="s">
+      <c r="A218" t="s">
         <v>427</v>
       </c>
-      <c r="B218" s="1" t="s">
+      <c r="B218" t="s">
         <v>428</v>
       </c>
       <c r="C218">
@@ -7156,10 +7155,10 @@
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A219" s="1" t="s">
+      <c r="A219" t="s">
         <v>429</v>
       </c>
-      <c r="B219" s="1" t="s">
+      <c r="B219" t="s">
         <v>430</v>
       </c>
       <c r="C219">
@@ -7179,10 +7178,10 @@
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A220" s="1" t="s">
+      <c r="A220" t="s">
         <v>431</v>
       </c>
-      <c r="B220" s="1" t="s">
+      <c r="B220" t="s">
         <v>432</v>
       </c>
       <c r="C220">
@@ -7202,10 +7201,10 @@
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A221" s="1" t="s">
+      <c r="A221" t="s">
         <v>433</v>
       </c>
-      <c r="B221" s="1" t="s">
+      <c r="B221" t="s">
         <v>434</v>
       </c>
       <c r="C221">
@@ -7225,10 +7224,10 @@
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A222" s="1" t="s">
+      <c r="A222" t="s">
         <v>435</v>
       </c>
-      <c r="B222" s="1" t="s">
+      <c r="B222" t="s">
         <v>436</v>
       </c>
       <c r="C222">
@@ -7248,10 +7247,10 @@
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A223" s="1" t="s">
+      <c r="A223" t="s">
         <v>437</v>
       </c>
-      <c r="B223" s="1" t="s">
+      <c r="B223" t="s">
         <v>438</v>
       </c>
       <c r="C223">
@@ -7271,10 +7270,10 @@
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A224" s="1" t="s">
+      <c r="A224" t="s">
         <v>439</v>
       </c>
-      <c r="B224" s="1" t="s">
+      <c r="B224" t="s">
         <v>440</v>
       </c>
       <c r="C224">
@@ -7294,10 +7293,10 @@
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A225" s="1" t="s">
+      <c r="A225" t="s">
         <v>441</v>
       </c>
-      <c r="B225" s="1" t="s">
+      <c r="B225" t="s">
         <v>442</v>
       </c>
       <c r="C225">
@@ -7317,10 +7316,10 @@
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A226" s="1" t="s">
+      <c r="A226" t="s">
         <v>443</v>
       </c>
-      <c r="B226" s="1" t="s">
+      <c r="B226" t="s">
         <v>444</v>
       </c>
       <c r="C226">
@@ -7340,10 +7339,10 @@
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A227" s="1" t="s">
+      <c r="A227" t="s">
         <v>445</v>
       </c>
-      <c r="B227" s="1" t="s">
+      <c r="B227" t="s">
         <v>446</v>
       </c>
       <c r="C227">
@@ -7363,10 +7362,10 @@
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A228" s="1" t="s">
+      <c r="A228" t="s">
         <v>447</v>
       </c>
-      <c r="B228" s="1" t="s">
+      <c r="B228" t="s">
         <v>448</v>
       </c>
       <c r="C228">
@@ -7386,10 +7385,10 @@
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A229" s="1" t="s">
+      <c r="A229" t="s">
         <v>449</v>
       </c>
-      <c r="B229" s="1" t="s">
+      <c r="B229" t="s">
         <v>450</v>
       </c>
       <c r="C229">
@@ -7409,10 +7408,10 @@
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A230" s="1" t="s">
+      <c r="A230" t="s">
         <v>451</v>
       </c>
-      <c r="B230" s="1" t="s">
+      <c r="B230" t="s">
         <v>452</v>
       </c>
       <c r="C230">
@@ -7432,10 +7431,10 @@
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A231" s="1" t="s">
+      <c r="A231" t="s">
         <v>453</v>
       </c>
-      <c r="B231" s="1" t="s">
+      <c r="B231" t="s">
         <v>454</v>
       </c>
       <c r="C231">
@@ -7455,10 +7454,10 @@
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A232" s="1" t="s">
+      <c r="A232" t="s">
         <v>455</v>
       </c>
-      <c r="B232" s="1" t="s">
+      <c r="B232" t="s">
         <v>456</v>
       </c>
       <c r="C232">
@@ -7478,10 +7477,10 @@
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A233" s="1" t="s">
+      <c r="A233" t="s">
         <v>457</v>
       </c>
-      <c r="B233" s="1" t="s">
+      <c r="B233" t="s">
         <v>458</v>
       </c>
       <c r="C233">
@@ -7501,10 +7500,10 @@
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A234" s="1" t="s">
+      <c r="A234" t="s">
         <v>459</v>
       </c>
-      <c r="B234" s="1" t="s">
+      <c r="B234" t="s">
         <v>460</v>
       </c>
       <c r="C234">
@@ -7524,10 +7523,10 @@
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A235" s="1" t="s">
+      <c r="A235" t="s">
         <v>461</v>
       </c>
-      <c r="B235" s="1" t="s">
+      <c r="B235" t="s">
         <v>462</v>
       </c>
       <c r="C235">
@@ -7547,10 +7546,10 @@
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A236" s="1" t="s">
+      <c r="A236" t="s">
         <v>463</v>
       </c>
-      <c r="B236" s="1" t="s">
+      <c r="B236" t="s">
         <v>464</v>
       </c>
       <c r="C236">
@@ -7570,10 +7569,10 @@
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A237" s="1" t="s">
+      <c r="A237" t="s">
         <v>465</v>
       </c>
-      <c r="B237" s="1" t="s">
+      <c r="B237" t="s">
         <v>466</v>
       </c>
       <c r="C237">
@@ -7593,10 +7592,10 @@
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A238" s="1" t="s">
+      <c r="A238" t="s">
         <v>467</v>
       </c>
-      <c r="B238" s="1" t="s">
+      <c r="B238" t="s">
         <v>468</v>
       </c>
       <c r="C238">
@@ -7616,10 +7615,10 @@
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A239" s="1" t="s">
+      <c r="A239" t="s">
         <v>469</v>
       </c>
-      <c r="B239" s="1" t="s">
+      <c r="B239" t="s">
         <v>470</v>
       </c>
       <c r="C239">
@@ -7639,10 +7638,10 @@
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A240" s="1" t="s">
+      <c r="A240" t="s">
         <v>471</v>
       </c>
-      <c r="B240" s="1" t="s">
+      <c r="B240" t="s">
         <v>472</v>
       </c>
       <c r="C240">
@@ -7662,10 +7661,10 @@
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A241" s="1" t="s">
+      <c r="A241" t="s">
         <v>473</v>
       </c>
-      <c r="B241" s="1" t="s">
+      <c r="B241" t="s">
         <v>474</v>
       </c>
       <c r="C241">
@@ -7685,10 +7684,10 @@
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A242" s="1" t="s">
+      <c r="A242" t="s">
         <v>21</v>
       </c>
-      <c r="B242" s="1" t="s">
+      <c r="B242" t="s">
         <v>22</v>
       </c>
       <c r="C242">
@@ -7708,10 +7707,10 @@
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A243" s="1" t="s">
+      <c r="A243" t="s">
         <v>475</v>
       </c>
-      <c r="B243" s="1" t="s">
+      <c r="B243" t="s">
         <v>476</v>
       </c>
       <c r="C243">
@@ -7731,10 +7730,10 @@
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A244" s="1" t="s">
+      <c r="A244" t="s">
         <v>477</v>
       </c>
-      <c r="B244" s="1" t="s">
+      <c r="B244" t="s">
         <v>478</v>
       </c>
       <c r="C244">
@@ -7754,10 +7753,10 @@
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A245" s="1" t="s">
+      <c r="A245" t="s">
         <v>479</v>
       </c>
-      <c r="B245" s="1" t="s">
+      <c r="B245" t="s">
         <v>480</v>
       </c>
       <c r="C245">
@@ -7777,10 +7776,10 @@
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A246" s="1" t="s">
+      <c r="A246" t="s">
         <v>481</v>
       </c>
-      <c r="B246" s="1" t="s">
+      <c r="B246" t="s">
         <v>482</v>
       </c>
       <c r="C246">
@@ -7800,10 +7799,10 @@
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A247" s="1" t="s">
+      <c r="A247" t="s">
         <v>483</v>
       </c>
-      <c r="B247" s="1" t="s">
+      <c r="B247" t="s">
         <v>484</v>
       </c>
       <c r="C247">
@@ -7823,10 +7822,10 @@
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A248" s="1" t="s">
+      <c r="A248" t="s">
         <v>485</v>
       </c>
-      <c r="B248" s="1" t="s">
+      <c r="B248" t="s">
         <v>486</v>
       </c>
       <c r="C248">
@@ -7846,10 +7845,10 @@
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A249" s="1" t="s">
+      <c r="A249" t="s">
         <v>487</v>
       </c>
-      <c r="B249" s="1" t="s">
+      <c r="B249" t="s">
         <v>488</v>
       </c>
       <c r="C249">
@@ -7869,10 +7868,10 @@
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A250" s="1" t="s">
+      <c r="A250" t="s">
         <v>489</v>
       </c>
-      <c r="B250" s="1" t="s">
+      <c r="B250" t="s">
         <v>490</v>
       </c>
       <c r="C250">
@@ -7892,10 +7891,10 @@
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A251" s="1" t="s">
+      <c r="A251" t="s">
         <v>491</v>
       </c>
-      <c r="B251" s="1" t="s">
+      <c r="B251" t="s">
         <v>492</v>
       </c>
       <c r="C251">
@@ -7915,10 +7914,10 @@
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A252" s="1" t="s">
+      <c r="A252" t="s">
         <v>493</v>
       </c>
-      <c r="B252" s="1" t="s">
+      <c r="B252" t="s">
         <v>494</v>
       </c>
       <c r="C252">
@@ -7938,10 +7937,10 @@
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A253" s="1" t="s">
+      <c r="A253" t="s">
         <v>495</v>
       </c>
-      <c r="B253" s="1" t="s">
+      <c r="B253" t="s">
         <v>496</v>
       </c>
       <c r="C253">
@@ -7961,10 +7960,10 @@
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A254" s="1" t="s">
+      <c r="A254" t="s">
         <v>497</v>
       </c>
-      <c r="B254" s="1" t="s">
+      <c r="B254" t="s">
         <v>498</v>
       </c>
       <c r="C254">
@@ -7984,10 +7983,10 @@
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A255" s="1" t="s">
+      <c r="A255" t="s">
         <v>499</v>
       </c>
-      <c r="B255" s="1" t="s">
+      <c r="B255" t="s">
         <v>500</v>
       </c>
       <c r="C255">
@@ -8007,10 +8006,10 @@
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A256" s="1" t="s">
+      <c r="A256" t="s">
         <v>501</v>
       </c>
-      <c r="B256" s="1" t="s">
+      <c r="B256" t="s">
         <v>502</v>
       </c>
       <c r="C256">
@@ -8030,10 +8029,10 @@
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A257" s="1" t="s">
+      <c r="A257" t="s">
         <v>93</v>
       </c>
-      <c r="B257" s="1" t="s">
+      <c r="B257" t="s">
         <v>94</v>
       </c>
       <c r="C257">
@@ -8053,10 +8052,10 @@
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A258" s="1" t="s">
+      <c r="A258" t="s">
         <v>503</v>
       </c>
-      <c r="B258" s="1" t="s">
+      <c r="B258" t="s">
         <v>504</v>
       </c>
       <c r="C258">
@@ -8076,10 +8075,10 @@
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A259" s="1" t="s">
+      <c r="A259" t="s">
         <v>505</v>
       </c>
-      <c r="B259" s="1" t="s">
+      <c r="B259" t="s">
         <v>506</v>
       </c>
       <c r="C259">
@@ -8099,10 +8098,10 @@
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A260" s="1" t="s">
+      <c r="A260" t="s">
         <v>405</v>
       </c>
-      <c r="B260" s="1" t="s">
+      <c r="B260" t="s">
         <v>406</v>
       </c>
       <c r="C260">
@@ -8122,10 +8121,10 @@
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A261" s="1" t="s">
+      <c r="A261" t="s">
         <v>315</v>
       </c>
-      <c r="B261" s="1" t="s">
+      <c r="B261" t="s">
         <v>316</v>
       </c>
       <c r="C261">
@@ -8145,10 +8144,10 @@
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A262" s="1" t="s">
+      <c r="A262" t="s">
         <v>507</v>
       </c>
-      <c r="B262" s="1" t="s">
+      <c r="B262" t="s">
         <v>508</v>
       </c>
       <c r="C262">
@@ -8168,10 +8167,10 @@
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A263" s="1" t="s">
+      <c r="A263" t="s">
         <v>509</v>
       </c>
-      <c r="B263" s="1" t="s">
+      <c r="B263" t="s">
         <v>510</v>
       </c>
       <c r="C263">
@@ -8191,10 +8190,10 @@
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A264" s="1" t="s">
+      <c r="A264" t="s">
         <v>511</v>
       </c>
-      <c r="B264" s="1" t="s">
+      <c r="B264" t="s">
         <v>512</v>
       </c>
       <c r="C264">
@@ -8214,10 +8213,10 @@
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A265" s="1" t="s">
+      <c r="A265" t="s">
         <v>387</v>
       </c>
-      <c r="B265" s="1" t="s">
+      <c r="B265" t="s">
         <v>388</v>
       </c>
       <c r="C265">
@@ -8237,10 +8236,10 @@
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A266" s="1" t="s">
+      <c r="A266" t="s">
         <v>513</v>
       </c>
-      <c r="B266" s="1" t="s">
+      <c r="B266" t="s">
         <v>514</v>
       </c>
       <c r="C266">
@@ -8260,10 +8259,10 @@
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A267" s="1" t="s">
+      <c r="A267" t="s">
         <v>515</v>
       </c>
-      <c r="B267" s="1" t="s">
+      <c r="B267" t="s">
         <v>516</v>
       </c>
       <c r="C267">
@@ -8283,10 +8282,10 @@
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A268" s="1" t="s">
+      <c r="A268" t="s">
         <v>517</v>
       </c>
-      <c r="B268" s="1" t="s">
+      <c r="B268" t="s">
         <v>518</v>
       </c>
       <c r="C268">
@@ -8306,10 +8305,10 @@
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A269" s="1" t="s">
+      <c r="A269" t="s">
         <v>519</v>
       </c>
-      <c r="B269" s="1" t="s">
+      <c r="B269" t="s">
         <v>520</v>
       </c>
       <c r="C269">
@@ -8329,10 +8328,10 @@
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A270" s="1" t="s">
+      <c r="A270" t="s">
         <v>521</v>
       </c>
-      <c r="B270" s="1" t="s">
+      <c r="B270" t="s">
         <v>522</v>
       </c>
       <c r="C270">
@@ -8352,10 +8351,10 @@
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A271" s="1" t="s">
+      <c r="A271" t="s">
         <v>413</v>
       </c>
-      <c r="B271" s="1" t="s">
+      <c r="B271" t="s">
         <v>414</v>
       </c>
       <c r="C271">
@@ -8375,10 +8374,10 @@
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A272" s="1" t="s">
+      <c r="A272" t="s">
         <v>523</v>
       </c>
-      <c r="B272" s="1" t="s">
+      <c r="B272" t="s">
         <v>524</v>
       </c>
       <c r="C272">
@@ -8398,10 +8397,10 @@
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A273" s="1" t="s">
+      <c r="A273" t="s">
         <v>525</v>
       </c>
-      <c r="B273" s="1" t="s">
+      <c r="B273" t="s">
         <v>526</v>
       </c>
       <c r="C273">
@@ -8421,10 +8420,10 @@
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A274" s="1" t="s">
+      <c r="A274" t="s">
         <v>527</v>
       </c>
-      <c r="B274" s="1" t="s">
+      <c r="B274" t="s">
         <v>528</v>
       </c>
       <c r="C274">
@@ -8444,10 +8443,10 @@
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A275" s="1" t="s">
+      <c r="A275" t="s">
         <v>537</v>
       </c>
-      <c r="B275" s="1" t="s">
+      <c r="B275" t="s">
         <v>529</v>
       </c>
       <c r="C275">
@@ -8458,10 +8457,10 @@
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A276" s="1" t="s">
+      <c r="A276" t="s">
         <v>530</v>
       </c>
-      <c r="B276" s="1" t="s">
+      <c r="B276" t="s">
         <v>531</v>
       </c>
       <c r="C276">
@@ -8472,10 +8471,10 @@
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A277" s="1" t="s">
+      <c r="A277" t="s">
         <v>532</v>
       </c>
-      <c r="B277" s="1" t="s">
+      <c r="B277" t="s">
         <v>529</v>
       </c>
       <c r="C277">
@@ -8486,10 +8485,10 @@
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A278" s="1" t="s">
+      <c r="A278" t="s">
         <v>533</v>
       </c>
-      <c r="B278" s="1" t="s">
+      <c r="B278" t="s">
         <v>534</v>
       </c>
       <c r="C278">
@@ -8500,10 +8499,10 @@
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A279" s="1" t="s">
+      <c r="A279" t="s">
         <v>535</v>
       </c>
-      <c r="B279" s="1" t="s">
+      <c r="B279" t="s">
         <v>536</v>
       </c>
       <c r="C279">
@@ -8525,2763 +8524,2765 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBDD843C-96A4-4F5F-8698-F8B03867BE11}">
   <dimension ref="A1:C250"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.88671875" customWidth="1"/>
+    <col min="3" max="3" width="17.21875" customWidth="1"/>
     <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>539</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>538</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>477</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" t="s">
+        <v>541</v>
+      </c>
+      <c r="C2" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>537</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" t="s">
+        <v>541</v>
+      </c>
+      <c r="C3" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>121</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="B4" t="s">
+        <v>541</v>
+      </c>
+      <c r="C4" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>543</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="B5" t="s">
+        <v>541</v>
+      </c>
+      <c r="C5" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>513</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="B6" t="s">
+        <v>541</v>
+      </c>
+      <c r="C6" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>501</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="B7" t="s">
+        <v>541</v>
+      </c>
+      <c r="C7" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>219</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="B8" t="s">
+        <v>541</v>
+      </c>
+      <c r="C8" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>133</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="B9" t="s">
+        <v>541</v>
+      </c>
+      <c r="C9" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>483</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="B10" t="s">
+        <v>541</v>
+      </c>
+      <c r="C10" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>351</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="B11" t="s">
+        <v>541</v>
+      </c>
+      <c r="C11" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>377</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="B12" t="s">
+        <v>541</v>
+      </c>
+      <c r="C12" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="B13" t="s">
+        <v>541</v>
+      </c>
+      <c r="C13" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>221</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="B14" t="s">
+        <v>541</v>
+      </c>
+      <c r="C14" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>141</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="B15" t="s">
+        <v>541</v>
+      </c>
+      <c r="C15" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>183</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="B16" t="s">
+        <v>541</v>
+      </c>
+      <c r="C16" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>329</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="B17" t="s">
+        <v>541</v>
+      </c>
+      <c r="C17" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
         <v>231</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C18" s="1" t="s">
+      <c r="B18" t="s">
+        <v>541</v>
+      </c>
+      <c r="C18" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+      <c r="A19" t="s">
         <v>299</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C19" s="1" t="s">
+      <c r="B19" t="s">
+        <v>541</v>
+      </c>
+      <c r="C19" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
         <v>77</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C20" s="1" t="s">
+      <c r="B20" t="s">
+        <v>541</v>
+      </c>
+      <c r="C20" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+      <c r="A21" t="s">
         <v>223</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C21" s="1" t="s">
+      <c r="B21" t="s">
+        <v>541</v>
+      </c>
+      <c r="C21" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+      <c r="A22" t="s">
         <v>371</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C22" s="1" t="s">
+      <c r="B22" t="s">
+        <v>541</v>
+      </c>
+      <c r="C22" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+      <c r="A23" t="s">
         <v>405</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C23" s="1" t="s">
+      <c r="B23" t="s">
+        <v>541</v>
+      </c>
+      <c r="C23" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
+      <c r="A24" t="s">
         <v>91</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C24" s="1" t="s">
+      <c r="B24" t="s">
+        <v>541</v>
+      </c>
+      <c r="C24" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+      <c r="A25" t="s">
         <v>271</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C25" s="1" t="s">
+      <c r="B25" t="s">
+        <v>541</v>
+      </c>
+      <c r="C25" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+      <c r="A26" t="s">
         <v>546</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C26" s="1" t="s">
+      <c r="B26" t="s">
+        <v>541</v>
+      </c>
+      <c r="C26" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
+      <c r="A27" t="s">
         <v>401</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C27" s="1" t="s">
+      <c r="B27" t="s">
+        <v>541</v>
+      </c>
+      <c r="C27" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
+      <c r="A28" t="s">
         <v>469</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C28" s="1" t="s">
+      <c r="B28" t="s">
+        <v>541</v>
+      </c>
+      <c r="C28" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
+      <c r="A29" t="s">
         <v>135</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C29" s="1" t="s">
+      <c r="B29" t="s">
+        <v>541</v>
+      </c>
+      <c r="C29" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
+      <c r="A30" t="s">
         <v>525</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C30" s="1" t="s">
+      <c r="B30" t="s">
+        <v>541</v>
+      </c>
+      <c r="C30" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
+      <c r="A31" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C31" s="1" t="s">
+      <c r="B31" t="s">
+        <v>541</v>
+      </c>
+      <c r="C31" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
+      <c r="A32" t="s">
         <v>465</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C32" s="1" t="s">
+      <c r="B32" t="s">
+        <v>541</v>
+      </c>
+      <c r="C32" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
+      <c r="A33" t="s">
         <v>227</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C33" s="1" t="s">
+      <c r="B33" t="s">
+        <v>541</v>
+      </c>
+      <c r="C33" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
+      <c r="A34" t="s">
         <v>367</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C34" s="1" t="s">
+      <c r="B34" t="s">
+        <v>541</v>
+      </c>
+      <c r="C34" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
+      <c r="A35" t="s">
         <v>323</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C35" s="1" t="s">
+      <c r="B35" t="s">
+        <v>541</v>
+      </c>
+      <c r="C35" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
+      <c r="A36" t="s">
         <v>349</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C36" s="1" t="s">
+      <c r="B36" t="s">
+        <v>541</v>
+      </c>
+      <c r="C36" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
+      <c r="A37" t="s">
         <v>229</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C37" s="1" t="s">
+      <c r="B37" t="s">
+        <v>541</v>
+      </c>
+      <c r="C37" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
+      <c r="A38" t="s">
         <v>433</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C38" s="1" t="s">
+      <c r="B38" t="s">
+        <v>541</v>
+      </c>
+      <c r="C38" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
+      <c r="A39" t="s">
         <v>521</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C39" s="1" t="s">
+      <c r="B39" t="s">
+        <v>541</v>
+      </c>
+      <c r="C39" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
+      <c r="A40" t="s">
         <v>293</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C40" s="1" t="s">
+      <c r="B40" t="s">
+        <v>541</v>
+      </c>
+      <c r="C40" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
+      <c r="A41" t="s">
         <v>137</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C41" s="1" t="s">
+      <c r="B41" t="s">
+        <v>541</v>
+      </c>
+      <c r="C41" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
+      <c r="A42" t="s">
         <v>475</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C42" s="1" t="s">
+      <c r="B42" t="s">
+        <v>541</v>
+      </c>
+      <c r="C42" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
+      <c r="A43" t="s">
         <v>197</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C43" s="1" t="s">
+      <c r="B43" t="s">
+        <v>541</v>
+      </c>
+      <c r="C43" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
+      <c r="A44" t="s">
         <v>49</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C44" s="1" t="s">
+      <c r="B44" t="s">
+        <v>541</v>
+      </c>
+      <c r="C44" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
+      <c r="A45" t="s">
         <v>29</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C45" s="1" t="s">
+      <c r="B45" t="s">
+        <v>541</v>
+      </c>
+      <c r="C45" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
+      <c r="A46" t="s">
         <v>297</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C46" s="1" t="s">
+      <c r="B46" t="s">
+        <v>541</v>
+      </c>
+      <c r="C46" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
+      <c r="A47" t="s">
         <v>17</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C47" s="1" t="s">
+      <c r="B47" t="s">
+        <v>541</v>
+      </c>
+      <c r="C47" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
+      <c r="A48" t="s">
         <v>269</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C48" s="1" t="s">
+      <c r="B48" t="s">
+        <v>541</v>
+      </c>
+      <c r="C48" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
+      <c r="A49" t="s">
         <v>47</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C49" s="1" t="s">
+      <c r="B49" t="s">
+        <v>541</v>
+      </c>
+      <c r="C49" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
+      <c r="A50" t="s">
         <v>547</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C50" s="1" t="s">
+      <c r="B50" t="s">
+        <v>541</v>
+      </c>
+      <c r="C50" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
+      <c r="A51" t="s">
         <v>163</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C51" s="1" t="s">
+      <c r="B51" t="s">
+        <v>541</v>
+      </c>
+      <c r="C51" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
+      <c r="A52" t="s">
         <v>167</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C52" s="1" t="s">
+      <c r="B52" t="s">
+        <v>541</v>
+      </c>
+      <c r="C52" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
+      <c r="A53" t="s">
         <v>373</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C53" s="1" t="s">
+      <c r="B53" t="s">
+        <v>541</v>
+      </c>
+      <c r="C53" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
+      <c r="A54" t="s">
         <v>103</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C54" s="1" t="s">
+      <c r="B54" t="s">
+        <v>541</v>
+      </c>
+      <c r="C54" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
+      <c r="A55" t="s">
         <v>263</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C55" s="1" t="s">
+      <c r="B55" t="s">
+        <v>541</v>
+      </c>
+      <c r="C55" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
+      <c r="A56" t="s">
         <v>277</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C56" s="1" t="s">
+      <c r="B56" t="s">
+        <v>541</v>
+      </c>
+      <c r="C56" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
+      <c r="A57" t="s">
         <v>97</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C57" s="1" t="s">
+      <c r="B57" t="s">
+        <v>541</v>
+      </c>
+      <c r="C57" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
+      <c r="A58" t="s">
         <v>211</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C58" s="1" t="s">
+      <c r="B58" t="s">
+        <v>541</v>
+      </c>
+      <c r="C58" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
+      <c r="A59" t="s">
         <v>511</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C59" s="1" t="s">
+      <c r="B59" t="s">
+        <v>541</v>
+      </c>
+      <c r="C59" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
+      <c r="A60" t="s">
         <v>257</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C60" s="1" t="s">
+      <c r="B60" t="s">
+        <v>541</v>
+      </c>
+      <c r="C60" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
+      <c r="A61" t="s">
         <v>453</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C61" s="1" t="s">
+      <c r="B61" t="s">
+        <v>541</v>
+      </c>
+      <c r="C61" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
+      <c r="A62" t="s">
         <v>165</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C62" s="1" t="s">
+      <c r="B62" t="s">
+        <v>541</v>
+      </c>
+      <c r="C62" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
+      <c r="A63" t="s">
         <v>13</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C63" s="1" t="s">
+      <c r="B63" t="s">
+        <v>541</v>
+      </c>
+      <c r="C63" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
+      <c r="A64" t="s">
         <v>213</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C64" s="1" t="s">
+      <c r="B64" t="s">
+        <v>541</v>
+      </c>
+      <c r="C64" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
+      <c r="A65" t="s">
         <v>385</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C65" s="1" t="s">
+      <c r="B65" t="s">
+        <v>541</v>
+      </c>
+      <c r="C65" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
+      <c r="A66" t="s">
         <v>175</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C66" s="1" t="s">
+      <c r="B66" t="s">
+        <v>541</v>
+      </c>
+      <c r="C66" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="1" t="s">
+      <c r="A67" t="s">
         <v>21</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C67" s="1" t="s">
+      <c r="B67" t="s">
+        <v>541</v>
+      </c>
+      <c r="C67" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="1" t="s">
+      <c r="A68" t="s">
         <v>63</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C68" s="1" t="s">
+      <c r="B68" t="s">
+        <v>541</v>
+      </c>
+      <c r="C68" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="1" t="s">
+      <c r="A69" t="s">
         <v>303</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C69" s="1" t="s">
+      <c r="B69" t="s">
+        <v>541</v>
+      </c>
+      <c r="C69" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="1" t="s">
+      <c r="A70" t="s">
         <v>207</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C70" s="1" t="s">
+      <c r="B70" t="s">
+        <v>541</v>
+      </c>
+      <c r="C70" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="1" t="s">
+      <c r="A71" t="s">
         <v>359</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C71" s="1" t="s">
+      <c r="B71" t="s">
+        <v>541</v>
+      </c>
+      <c r="C71" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="1" t="s">
+      <c r="A72" t="s">
         <v>169</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C72" s="1" t="s">
+      <c r="B72" t="s">
+        <v>541</v>
+      </c>
+      <c r="C72" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="1" t="s">
+      <c r="A73" t="s">
         <v>73</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C73" s="1" t="s">
+      <c r="B73" t="s">
+        <v>541</v>
+      </c>
+      <c r="C73" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="1" t="s">
+      <c r="A74" t="s">
         <v>171</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C74" s="1" t="s">
+      <c r="B74" t="s">
+        <v>541</v>
+      </c>
+      <c r="C74" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="1" t="s">
+      <c r="A75" t="s">
         <v>105</v>
       </c>
-      <c r="B75" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C75" s="1" t="s">
+      <c r="B75" t="s">
+        <v>541</v>
+      </c>
+      <c r="C75" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" s="1" t="s">
+      <c r="A76" t="s">
         <v>195</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C76" s="1" t="s">
+      <c r="B76" t="s">
+        <v>541</v>
+      </c>
+      <c r="C76" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" s="1" t="s">
+      <c r="A77" t="s">
         <v>111</v>
       </c>
-      <c r="B77" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C77" s="1" t="s">
+      <c r="B77" t="s">
+        <v>541</v>
+      </c>
+      <c r="C77" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" s="1" t="s">
+      <c r="A78" t="s">
         <v>487</v>
       </c>
-      <c r="B78" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C78" s="1" t="s">
+      <c r="B78" t="s">
+        <v>541</v>
+      </c>
+      <c r="C78" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" s="1" t="s">
+      <c r="A79" t="s">
         <v>11</v>
       </c>
-      <c r="B79" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C79" s="1" t="s">
+      <c r="B79" t="s">
+        <v>541</v>
+      </c>
+      <c r="C79" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" s="1" t="s">
+      <c r="A80" t="s">
         <v>83</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C80" s="1" t="s">
+      <c r="B80" t="s">
+        <v>541</v>
+      </c>
+      <c r="C80" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="1" t="s">
+      <c r="A81" t="s">
         <v>479</v>
       </c>
-      <c r="B81" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C81" s="1" t="s">
+      <c r="B81" t="s">
+        <v>541</v>
+      </c>
+      <c r="C81" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" s="1" t="s">
+      <c r="A82" t="s">
         <v>87</v>
       </c>
-      <c r="B82" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C82" s="1" t="s">
+      <c r="B82" t="s">
+        <v>541</v>
+      </c>
+      <c r="C82" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" s="1" t="s">
+      <c r="A83" t="s">
         <v>548</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C83" s="1" t="s">
+      <c r="B83" t="s">
+        <v>541</v>
+      </c>
+      <c r="C83" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" s="1" t="s">
+      <c r="A84" t="s">
         <v>507</v>
       </c>
-      <c r="B84" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C84" s="1" t="s">
+      <c r="B84" t="s">
+        <v>541</v>
+      </c>
+      <c r="C84" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="1" t="s">
+      <c r="A85" t="s">
         <v>261</v>
       </c>
-      <c r="B85" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C85" s="1" t="s">
+      <c r="B85" t="s">
+        <v>541</v>
+      </c>
+      <c r="C85" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" s="1" t="s">
+      <c r="A86" t="s">
         <v>273</v>
       </c>
-      <c r="B86" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C86" s="1" t="s">
+      <c r="B86" t="s">
+        <v>541</v>
+      </c>
+      <c r="C86" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" s="1" t="s">
+      <c r="A87" t="s">
         <v>173</v>
       </c>
-      <c r="B87" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C87" s="1" t="s">
+      <c r="B87" t="s">
+        <v>541</v>
+      </c>
+      <c r="C87" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" s="1" t="s">
+      <c r="A88" t="s">
         <v>435</v>
       </c>
-      <c r="B88" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C88" s="1" t="s">
+      <c r="B88" t="s">
+        <v>541</v>
+      </c>
+      <c r="C88" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" s="1" t="s">
+      <c r="A89" t="s">
         <v>417</v>
       </c>
-      <c r="B89" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C89" s="1" t="s">
+      <c r="B89" t="s">
+        <v>541</v>
+      </c>
+      <c r="C89" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" s="1" t="s">
+      <c r="A90" t="s">
         <v>445</v>
       </c>
-      <c r="B90" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C90" s="1" t="s">
+      <c r="B90" t="s">
+        <v>541</v>
+      </c>
+      <c r="C90" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" s="1" t="s">
+      <c r="A91" t="s">
         <v>185</v>
       </c>
-      <c r="B91" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C91" s="1" t="s">
+      <c r="B91" t="s">
+        <v>541</v>
+      </c>
+      <c r="C91" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" s="1" t="s">
+      <c r="A92" t="s">
         <v>463</v>
       </c>
-      <c r="B92" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C92" s="1" t="s">
+      <c r="B92" t="s">
+        <v>541</v>
+      </c>
+      <c r="C92" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93" s="1" t="s">
+      <c r="A93" t="s">
         <v>391</v>
       </c>
-      <c r="B93" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C93" s="1" t="s">
+      <c r="B93" t="s">
+        <v>541</v>
+      </c>
+      <c r="C93" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" s="1" t="s">
+      <c r="A94" t="s">
         <v>363</v>
       </c>
-      <c r="B94" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C94" s="1" t="s">
+      <c r="B94" t="s">
+        <v>541</v>
+      </c>
+      <c r="C94" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95" s="1" t="s">
+      <c r="A95" t="s">
         <v>357</v>
       </c>
-      <c r="B95" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C95" s="1" t="s">
+      <c r="B95" t="s">
+        <v>541</v>
+      </c>
+      <c r="C95" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" s="1" t="s">
+      <c r="A96" t="s">
         <v>451</v>
       </c>
-      <c r="B96" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C96" s="1" t="s">
+      <c r="B96" t="s">
+        <v>541</v>
+      </c>
+      <c r="C96" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97" s="1" t="s">
+      <c r="A97" t="s">
         <v>461</v>
       </c>
-      <c r="B97" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C97" s="1" t="s">
+      <c r="B97" t="s">
+        <v>541</v>
+      </c>
+      <c r="C97" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98" s="1" t="s">
+      <c r="A98" t="s">
         <v>407</v>
       </c>
-      <c r="B98" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C98" s="1" t="s">
+      <c r="B98" t="s">
+        <v>541</v>
+      </c>
+      <c r="C98" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" s="1" t="s">
+      <c r="A99" t="s">
         <v>549</v>
       </c>
-      <c r="B99" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C99" s="1" t="s">
+      <c r="B99" t="s">
+        <v>541</v>
+      </c>
+      <c r="C99" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A100" s="1" t="s">
+      <c r="A100" t="s">
         <v>117</v>
       </c>
-      <c r="B100" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C100" s="1" t="s">
+      <c r="B100" t="s">
+        <v>541</v>
+      </c>
+      <c r="C100" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A101" s="1" t="s">
+      <c r="A101" t="s">
         <v>337</v>
       </c>
-      <c r="B101" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C101" s="1" t="s">
+      <c r="B101" t="s">
+        <v>541</v>
+      </c>
+      <c r="C101" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A102" s="1" t="s">
+      <c r="A102" t="s">
         <v>279</v>
       </c>
-      <c r="B102" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C102" s="1" t="s">
+      <c r="B102" t="s">
+        <v>541</v>
+      </c>
+      <c r="C102" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A103" s="1" t="s">
+      <c r="A103" t="s">
         <v>491</v>
       </c>
-      <c r="B103" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C103" s="1" t="s">
+      <c r="B103" t="s">
+        <v>541</v>
+      </c>
+      <c r="C103" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A104" s="1" t="s">
+      <c r="A104" t="s">
         <v>95</v>
       </c>
-      <c r="B104" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C104" s="1" t="s">
+      <c r="B104" t="s">
+        <v>541</v>
+      </c>
+      <c r="C104" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A105" s="1" t="s">
+      <c r="A105" t="s">
         <v>265</v>
       </c>
-      <c r="B105" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C105" s="1" t="s">
+      <c r="B105" t="s">
+        <v>541</v>
+      </c>
+      <c r="C105" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A106" s="1" t="s">
+      <c r="A106" t="s">
         <v>19</v>
       </c>
-      <c r="B106" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C106" s="1" t="s">
+      <c r="B106" t="s">
+        <v>541</v>
+      </c>
+      <c r="C106" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A107" s="1" t="s">
+      <c r="A107" t="s">
         <v>395</v>
       </c>
-      <c r="B107" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C107" s="1" t="s">
+      <c r="B107" t="s">
+        <v>541</v>
+      </c>
+      <c r="C107" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A108" s="1" t="s">
+      <c r="A108" t="s">
         <v>69</v>
       </c>
-      <c r="B108" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C108" s="1" t="s">
+      <c r="B108" t="s">
+        <v>541</v>
+      </c>
+      <c r="C108" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A109" s="1" t="s">
+      <c r="A109" t="s">
         <v>431</v>
       </c>
-      <c r="B109" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C109" s="1" t="s">
+      <c r="B109" t="s">
+        <v>541</v>
+      </c>
+      <c r="C109" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A110" s="1" t="s">
+      <c r="A110" t="s">
         <v>161</v>
       </c>
-      <c r="B110" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C110" s="1" t="s">
+      <c r="B110" t="s">
+        <v>541</v>
+      </c>
+      <c r="C110" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A111" s="1" t="s">
+      <c r="A111" t="s">
         <v>191</v>
       </c>
-      <c r="B111" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C111" s="1" t="s">
+      <c r="B111" t="s">
+        <v>541</v>
+      </c>
+      <c r="C111" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A112" s="1" t="s">
+      <c r="A112" t="s">
         <v>515</v>
       </c>
-      <c r="B112" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C112" s="1" t="s">
+      <c r="B112" t="s">
+        <v>541</v>
+      </c>
+      <c r="C112" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A113" s="1" t="s">
+      <c r="A113" t="s">
         <v>530</v>
       </c>
-      <c r="B113" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C113" s="1" t="s">
+      <c r="B113" t="s">
+        <v>541</v>
+      </c>
+      <c r="C113" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A114" s="1" t="s">
+      <c r="A114" t="s">
         <v>383</v>
       </c>
-      <c r="B114" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C114" s="1" t="s">
+      <c r="B114" t="s">
+        <v>541</v>
+      </c>
+      <c r="C114" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A115" s="1" t="s">
+      <c r="A115" t="s">
         <v>509</v>
       </c>
-      <c r="B115" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C115" s="1" t="s">
+      <c r="B115" t="s">
+        <v>541</v>
+      </c>
+      <c r="C115" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A116" s="1" t="s">
+      <c r="A116" t="s">
         <v>281</v>
       </c>
-      <c r="B116" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C116" s="1" t="s">
+      <c r="B116" t="s">
+        <v>541</v>
+      </c>
+      <c r="C116" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A117" s="1" t="s">
+      <c r="A117" t="s">
         <v>533</v>
       </c>
-      <c r="B117" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C117" s="1" t="s">
+      <c r="B117" t="s">
+        <v>541</v>
+      </c>
+      <c r="C117" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A118" s="1" t="s">
+      <c r="A118" t="s">
         <v>237</v>
       </c>
-      <c r="B118" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C118" s="1" t="s">
+      <c r="B118" t="s">
+        <v>541</v>
+      </c>
+      <c r="C118" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A119" s="1" t="s">
+      <c r="A119" t="s">
         <v>455</v>
       </c>
-      <c r="B119" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C119" s="1" t="s">
+      <c r="B119" t="s">
+        <v>541</v>
+      </c>
+      <c r="C119" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A120" s="1" t="s">
+      <c r="A120" t="s">
         <v>535</v>
       </c>
-      <c r="B120" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C120" s="1" t="s">
+      <c r="B120" t="s">
+        <v>541</v>
+      </c>
+      <c r="C120" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A121" s="1" t="s">
+      <c r="A121" t="s">
         <v>527</v>
       </c>
-      <c r="B121" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C121" s="1" t="s">
+      <c r="B121" t="s">
+        <v>541</v>
+      </c>
+      <c r="C121" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A122" s="1" t="s">
+      <c r="A122" t="s">
         <v>485</v>
       </c>
-      <c r="B122" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C122" s="1" t="s">
+      <c r="B122" t="s">
+        <v>541</v>
+      </c>
+      <c r="C122" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A123" s="1" t="s">
+      <c r="A123" t="s">
         <v>321</v>
       </c>
-      <c r="B123" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C123" s="1" t="s">
+      <c r="B123" t="s">
+        <v>541</v>
+      </c>
+      <c r="C123" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A124" s="1" t="s">
+      <c r="A124" t="s">
         <v>397</v>
       </c>
-      <c r="B124" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C124" s="1" t="s">
+      <c r="B124" t="s">
+        <v>541</v>
+      </c>
+      <c r="C124" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A125" s="1" t="s">
+      <c r="A125" t="s">
         <v>550</v>
       </c>
-      <c r="B125" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C125" s="1" t="s">
+      <c r="B125" t="s">
+        <v>541</v>
+      </c>
+      <c r="C125" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A126" s="1" t="s">
+      <c r="A126" t="s">
         <v>275</v>
       </c>
-      <c r="B126" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C126" s="1" t="s">
+      <c r="B126" t="s">
+        <v>541</v>
+      </c>
+      <c r="C126" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A127" s="1" t="s">
+      <c r="A127" t="s">
         <v>301</v>
       </c>
-      <c r="B127" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C127" s="1" t="s">
+      <c r="B127" t="s">
+        <v>541</v>
+      </c>
+      <c r="C127" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A128" s="1" t="s">
+      <c r="A128" t="s">
         <v>209</v>
       </c>
-      <c r="B128" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C128" s="1" t="s">
+      <c r="B128" t="s">
+        <v>541</v>
+      </c>
+      <c r="C128" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A129" s="1" t="s">
+      <c r="A129" t="s">
         <v>289</v>
       </c>
-      <c r="B129" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C129" s="1" t="s">
+      <c r="B129" t="s">
+        <v>541</v>
+      </c>
+      <c r="C129" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A130" s="1" t="s">
+      <c r="A130" t="s">
         <v>81</v>
       </c>
-      <c r="B130" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C130" s="1" t="s">
+      <c r="B130" t="s">
+        <v>541</v>
+      </c>
+      <c r="C130" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A131" s="1" t="s">
+      <c r="A131" t="s">
         <v>283</v>
       </c>
-      <c r="B131" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C131" s="1" t="s">
+      <c r="B131" t="s">
+        <v>541</v>
+      </c>
+      <c r="C131" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A132" s="1" t="s">
+      <c r="A132" t="s">
         <v>71</v>
       </c>
-      <c r="B132" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C132" s="1" t="s">
+      <c r="B132" t="s">
+        <v>541</v>
+      </c>
+      <c r="C132" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A133" s="1" t="s">
+      <c r="A133" t="s">
         <v>131</v>
       </c>
-      <c r="B133" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C133" s="1" t="s">
+      <c r="B133" t="s">
+        <v>541</v>
+      </c>
+      <c r="C133" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A134" s="1" t="s">
+      <c r="A134" t="s">
         <v>7</v>
       </c>
-      <c r="B134" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C134" s="1" t="s">
+      <c r="B134" t="s">
+        <v>541</v>
+      </c>
+      <c r="C134" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A135" s="1" t="s">
+      <c r="A135" t="s">
         <v>365</v>
       </c>
-      <c r="B135" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C135" s="1" t="s">
+      <c r="B135" t="s">
+        <v>541</v>
+      </c>
+      <c r="C135" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A136" s="1" t="s">
+      <c r="A136" t="s">
         <v>115</v>
       </c>
-      <c r="B136" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C136" s="1" t="s">
+      <c r="B136" t="s">
+        <v>541</v>
+      </c>
+      <c r="C136" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A137" s="1" t="s">
+      <c r="A137" t="s">
         <v>235</v>
       </c>
-      <c r="B137" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C137" s="1" t="s">
+      <c r="B137" t="s">
+        <v>541</v>
+      </c>
+      <c r="C137" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A138" s="1" t="s">
+      <c r="A138" t="s">
         <v>31</v>
       </c>
-      <c r="B138" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C138" s="1" t="s">
+      <c r="B138" t="s">
+        <v>541</v>
+      </c>
+      <c r="C138" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A139" s="1" t="s">
+      <c r="A139" t="s">
         <v>93</v>
       </c>
-      <c r="B139" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C139" s="1" t="s">
+      <c r="B139" t="s">
+        <v>541</v>
+      </c>
+      <c r="C139" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A140" s="1" t="s">
+      <c r="A140" t="s">
         <v>315</v>
       </c>
-      <c r="B140" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C140" s="1" t="s">
+      <c r="B140" t="s">
+        <v>541</v>
+      </c>
+      <c r="C140" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A141" s="1" t="s">
+      <c r="A141" t="s">
         <v>27</v>
       </c>
-      <c r="B141" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C141" s="1" t="s">
+      <c r="B141" t="s">
+        <v>541</v>
+      </c>
+      <c r="C141" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A142" s="1" t="s">
+      <c r="A142" t="s">
         <v>532</v>
       </c>
-      <c r="B142" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C142" s="1" t="s">
+      <c r="B142" t="s">
+        <v>541</v>
+      </c>
+      <c r="C142" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A143" s="1" t="s">
+      <c r="A143" t="s">
         <v>467</v>
       </c>
-      <c r="B143" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C143" s="1" t="s">
+      <c r="B143" t="s">
+        <v>541</v>
+      </c>
+      <c r="C143" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A144" s="1" t="s">
+      <c r="A144" t="s">
         <v>43</v>
       </c>
-      <c r="B144" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C144" s="1" t="s">
+      <c r="B144" t="s">
+        <v>541</v>
+      </c>
+      <c r="C144" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A145" s="1" t="s">
+      <c r="A145" t="s">
         <v>505</v>
       </c>
-      <c r="B145" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C145" s="1" t="s">
+      <c r="B145" t="s">
+        <v>541</v>
+      </c>
+      <c r="C145" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A146" s="1" t="s">
+      <c r="A146" t="s">
         <v>205</v>
       </c>
-      <c r="B146" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C146" s="1" t="s">
+      <c r="B146" t="s">
+        <v>541</v>
+      </c>
+      <c r="C146" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A147" s="1" t="s">
+      <c r="A147" t="s">
         <v>249</v>
       </c>
-      <c r="B147" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C147" s="1" t="s">
+      <c r="B147" t="s">
+        <v>541</v>
+      </c>
+      <c r="C147" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A148" s="1" t="s">
+      <c r="A148" t="s">
         <v>25</v>
       </c>
-      <c r="B148" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C148" s="1" t="s">
+      <c r="B148" t="s">
+        <v>541</v>
+      </c>
+      <c r="C148" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A149" s="1" t="s">
+      <c r="A149" t="s">
         <v>425</v>
       </c>
-      <c r="B149" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C149" s="1" t="s">
+      <c r="B149" t="s">
+        <v>541</v>
+      </c>
+      <c r="C149" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A150" s="1" t="s">
+      <c r="A150" t="s">
         <v>481</v>
       </c>
-      <c r="B150" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C150" s="1" t="s">
+      <c r="B150" t="s">
+        <v>541</v>
+      </c>
+      <c r="C150" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A151" s="1" t="s">
+      <c r="A151" t="s">
         <v>65</v>
       </c>
-      <c r="B151" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C151" s="1" t="s">
+      <c r="B151" t="s">
+        <v>541</v>
+      </c>
+      <c r="C151" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A152" s="1" t="s">
+      <c r="A152" t="s">
         <v>107</v>
       </c>
-      <c r="B152" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C152" s="1" t="s">
+      <c r="B152" t="s">
+        <v>541</v>
+      </c>
+      <c r="C152" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A153" s="1" t="s">
+      <c r="A153" t="s">
         <v>499</v>
       </c>
-      <c r="B153" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C153" s="1" t="s">
+      <c r="B153" t="s">
+        <v>541</v>
+      </c>
+      <c r="C153" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A154" s="1" t="s">
+      <c r="A154" t="s">
         <v>233</v>
       </c>
-      <c r="B154" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C154" s="1" t="s">
+      <c r="B154" t="s">
+        <v>541</v>
+      </c>
+      <c r="C154" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A155" s="1" t="s">
+      <c r="A155" t="s">
         <v>177</v>
       </c>
-      <c r="B155" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C155" s="1" t="s">
+      <c r="B155" t="s">
+        <v>541</v>
+      </c>
+      <c r="C155" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A156" s="1" t="s">
+      <c r="A156" t="s">
         <v>251</v>
       </c>
-      <c r="B156" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C156" s="1" t="s">
+      <c r="B156" t="s">
+        <v>541</v>
+      </c>
+      <c r="C156" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A157" s="1" t="s">
+      <c r="A157" t="s">
         <v>493</v>
       </c>
-      <c r="B157" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C157" s="1" t="s">
+      <c r="B157" t="s">
+        <v>541</v>
+      </c>
+      <c r="C157" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A158" s="1" t="s">
+      <c r="A158" t="s">
         <v>389</v>
       </c>
-      <c r="B158" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C158" s="1" t="s">
+      <c r="B158" t="s">
+        <v>541</v>
+      </c>
+      <c r="C158" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A159" s="1" t="s">
+      <c r="A159" t="s">
         <v>427</v>
       </c>
-      <c r="B159" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C159" s="1" t="s">
+      <c r="B159" t="s">
+        <v>541</v>
+      </c>
+      <c r="C159" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A160" s="1" t="s">
+      <c r="A160" t="s">
         <v>519</v>
       </c>
-      <c r="B160" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C160" s="1" t="s">
+      <c r="B160" t="s">
+        <v>541</v>
+      </c>
+      <c r="C160" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A161" s="1" t="s">
+      <c r="A161" t="s">
         <v>153</v>
       </c>
-      <c r="B161" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C161" s="1" t="s">
+      <c r="B161" t="s">
+        <v>541</v>
+      </c>
+      <c r="C161" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A162" s="1" t="s">
+      <c r="A162" t="s">
         <v>143</v>
       </c>
-      <c r="B162" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C162" s="1" t="s">
+      <c r="B162" t="s">
+        <v>541</v>
+      </c>
+      <c r="C162" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A163" s="1" t="s">
+      <c r="A163" t="s">
         <v>89</v>
       </c>
-      <c r="B163" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C163" s="1" t="s">
+      <c r="B163" t="s">
+        <v>541</v>
+      </c>
+      <c r="C163" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A164" s="1" t="s">
+      <c r="A164" t="s">
         <v>295</v>
       </c>
-      <c r="B164" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C164" s="1" t="s">
+      <c r="B164" t="s">
+        <v>541</v>
+      </c>
+      <c r="C164" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A165" s="1" t="s">
+      <c r="A165" t="s">
         <v>157</v>
       </c>
-      <c r="B165" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C165" s="1" t="s">
+      <c r="B165" t="s">
+        <v>541</v>
+      </c>
+      <c r="C165" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A166" s="1" t="s">
+      <c r="A166" t="s">
         <v>497</v>
       </c>
-      <c r="B166" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C166" s="1" t="s">
+      <c r="B166" t="s">
+        <v>541</v>
+      </c>
+      <c r="C166" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A167" s="1" t="s">
+      <c r="A167" t="s">
         <v>415</v>
       </c>
-      <c r="B167" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C167" s="1" t="s">
+      <c r="B167" t="s">
+        <v>541</v>
+      </c>
+      <c r="C167" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A168" s="1" t="s">
+      <c r="A168" t="s">
         <v>101</v>
       </c>
-      <c r="B168" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C168" s="1" t="s">
+      <c r="B168" t="s">
+        <v>541</v>
+      </c>
+      <c r="C168" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A169" s="1" t="s">
+      <c r="A169" t="s">
         <v>551</v>
       </c>
-      <c r="B169" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C169" s="1" t="s">
+      <c r="B169" t="s">
+        <v>541</v>
+      </c>
+      <c r="C169" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A170" s="1" t="s">
+      <c r="A170" t="s">
         <v>199</v>
       </c>
-      <c r="B170" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C170" s="1" t="s">
+      <c r="B170" t="s">
+        <v>541</v>
+      </c>
+      <c r="C170" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A171" s="1" t="s">
+      <c r="A171" t="s">
         <v>51</v>
       </c>
-      <c r="B171" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C171" s="1" t="s">
+      <c r="B171" t="s">
+        <v>541</v>
+      </c>
+      <c r="C171" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A172" s="1" t="s">
+      <c r="A172" t="s">
         <v>51</v>
       </c>
-      <c r="B172" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C172" s="1" t="s">
+      <c r="B172" t="s">
+        <v>541</v>
+      </c>
+      <c r="C172" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A173" s="1" t="s">
+      <c r="A173" t="s">
         <v>387</v>
       </c>
-      <c r="B173" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C173" s="1" t="s">
+      <c r="B173" t="s">
+        <v>541</v>
+      </c>
+      <c r="C173" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A174" s="1" t="s">
+      <c r="A174" t="s">
         <v>285</v>
       </c>
-      <c r="B174" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C174" s="1" t="s">
+      <c r="B174" t="s">
+        <v>541</v>
+      </c>
+      <c r="C174" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A175" s="1" t="s">
+      <c r="A175" t="s">
         <v>67</v>
       </c>
-      <c r="B175" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C175" s="1" t="s">
+      <c r="B175" t="s">
+        <v>541</v>
+      </c>
+      <c r="C175" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A176" s="1" t="s">
+      <c r="A176" t="s">
         <v>149</v>
       </c>
-      <c r="B176" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C176" s="1" t="s">
+      <c r="B176" t="s">
+        <v>541</v>
+      </c>
+      <c r="C176" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A177" s="1" t="s">
+      <c r="A177" t="s">
         <v>61</v>
       </c>
-      <c r="B177" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C177" s="1" t="s">
+      <c r="B177" t="s">
+        <v>541</v>
+      </c>
+      <c r="C177" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A178" s="1" t="s">
+      <c r="A178" t="s">
         <v>79</v>
       </c>
-      <c r="B178" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C178" s="1" t="s">
+      <c r="B178" t="s">
+        <v>541</v>
+      </c>
+      <c r="C178" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A179" s="1" t="s">
+      <c r="A179" t="s">
         <v>9</v>
       </c>
-      <c r="B179" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C179" s="1" t="s">
+      <c r="B179" t="s">
+        <v>541</v>
+      </c>
+      <c r="C179" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A180" s="1" t="s">
+      <c r="A180" t="s">
         <v>15</v>
       </c>
-      <c r="B180" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C180" s="1" t="s">
+      <c r="B180" t="s">
+        <v>541</v>
+      </c>
+      <c r="C180" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A181" s="1" t="s">
+      <c r="A181" t="s">
         <v>53</v>
       </c>
-      <c r="B181" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C181" s="1" t="s">
+      <c r="B181" t="s">
+        <v>541</v>
+      </c>
+      <c r="C181" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A182" s="1" t="s">
+      <c r="A182" t="s">
         <v>457</v>
       </c>
-      <c r="B182" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C182" s="1" t="s">
+      <c r="B182" t="s">
+        <v>541</v>
+      </c>
+      <c r="C182" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A183" s="1" t="s">
+      <c r="A183" t="s">
         <v>379</v>
       </c>
-      <c r="B183" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C183" s="1" t="s">
+      <c r="B183" t="s">
+        <v>541</v>
+      </c>
+      <c r="C183" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A184" s="1" t="s">
+      <c r="A184" t="s">
         <v>57</v>
       </c>
-      <c r="B184" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C184" s="1" t="s">
+      <c r="B184" t="s">
+        <v>541</v>
+      </c>
+      <c r="C184" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A185" s="1" t="s">
+      <c r="A185" t="s">
         <v>381</v>
       </c>
-      <c r="B185" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C185" s="1" t="s">
+      <c r="B185" t="s">
+        <v>541</v>
+      </c>
+      <c r="C185" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A186" s="1" t="s">
+      <c r="A186" t="s">
         <v>393</v>
       </c>
-      <c r="B186" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C186" s="1" t="s">
+      <c r="B186" t="s">
+        <v>541</v>
+      </c>
+      <c r="C186" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A187" s="1" t="s">
+      <c r="A187" t="s">
         <v>439</v>
       </c>
-      <c r="B187" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C187" s="1" t="s">
+      <c r="B187" t="s">
+        <v>541</v>
+      </c>
+      <c r="C187" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A188" s="1" t="s">
+      <c r="A188" t="s">
         <v>307</v>
       </c>
-      <c r="B188" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C188" s="1" t="s">
+      <c r="B188" t="s">
+        <v>541</v>
+      </c>
+      <c r="C188" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A189" s="1" t="s">
+      <c r="A189" t="s">
         <v>155</v>
       </c>
-      <c r="B189" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C189" s="1" t="s">
+      <c r="B189" t="s">
+        <v>541</v>
+      </c>
+      <c r="C189" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A190" s="1" t="s">
+      <c r="A190" t="s">
         <v>353</v>
       </c>
-      <c r="B190" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C190" s="1" t="s">
+      <c r="B190" t="s">
+        <v>541</v>
+      </c>
+      <c r="C190" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A191" s="1" t="s">
+      <c r="A191" t="s">
         <v>517</v>
       </c>
-      <c r="B191" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C191" s="1" t="s">
+      <c r="B191" t="s">
+        <v>541</v>
+      </c>
+      <c r="C191" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A192" s="1" t="s">
+      <c r="A192" t="s">
         <v>181</v>
       </c>
-      <c r="B192" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C192" s="1" t="s">
+      <c r="B192" t="s">
+        <v>541</v>
+      </c>
+      <c r="C192" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A193" s="1" t="s">
+      <c r="A193" t="s">
         <v>419</v>
       </c>
-      <c r="B193" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C193" s="1" t="s">
+      <c r="B193" t="s">
+        <v>541</v>
+      </c>
+      <c r="C193" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A194" s="1" t="s">
+      <c r="A194" t="s">
         <v>552</v>
       </c>
-      <c r="B194" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C194" s="1" t="s">
+      <c r="B194" t="s">
+        <v>541</v>
+      </c>
+      <c r="C194" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A195" s="1" t="s">
+      <c r="A195" t="s">
         <v>552</v>
       </c>
-      <c r="B195" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C195" s="1" t="s">
+      <c r="B195" t="s">
+        <v>541</v>
+      </c>
+      <c r="C195" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A196" s="1" t="s">
+      <c r="A196" t="s">
         <v>225</v>
       </c>
-      <c r="B196" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C196" s="1" t="s">
+      <c r="B196" t="s">
+        <v>541</v>
+      </c>
+      <c r="C196" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A197" s="1" t="s">
+      <c r="A197" t="s">
         <v>159</v>
       </c>
-      <c r="B197" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C197" s="1" t="s">
+      <c r="B197" t="s">
+        <v>541</v>
+      </c>
+      <c r="C197" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A198" s="1" t="s">
+      <c r="A198" t="s">
         <v>39</v>
       </c>
-      <c r="B198" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C198" s="1" t="s">
+      <c r="B198" t="s">
+        <v>541</v>
+      </c>
+      <c r="C198" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A199" s="1" t="s">
+      <c r="A199" t="s">
         <v>193</v>
       </c>
-      <c r="B199" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C199" s="1" t="s">
+      <c r="B199" t="s">
+        <v>541</v>
+      </c>
+      <c r="C199" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A200" s="1" t="s">
+      <c r="A200" t="s">
         <v>369</v>
       </c>
-      <c r="B200" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C200" s="1" t="s">
+      <c r="B200" t="s">
+        <v>541</v>
+      </c>
+      <c r="C200" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A201" s="1" t="s">
+      <c r="A201" t="s">
         <v>495</v>
       </c>
-      <c r="B201" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C201" s="1" t="s">
+      <c r="B201" t="s">
+        <v>541</v>
+      </c>
+      <c r="C201" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A202" s="1" t="s">
+      <c r="A202" t="s">
         <v>345</v>
       </c>
-      <c r="B202" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C202" s="1" t="s">
+      <c r="B202" t="s">
+        <v>541</v>
+      </c>
+      <c r="C202" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A203" s="1" t="s">
+      <c r="A203" t="s">
         <v>343</v>
       </c>
-      <c r="B203" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C203" s="1" t="s">
+      <c r="B203" t="s">
+        <v>541</v>
+      </c>
+      <c r="C203" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A204" s="1" t="s">
+      <c r="A204" t="s">
         <v>489</v>
       </c>
-      <c r="B204" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C204" s="1" t="s">
+      <c r="B204" t="s">
+        <v>541</v>
+      </c>
+      <c r="C204" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A205" s="1" t="s">
+      <c r="A205" t="s">
         <v>291</v>
       </c>
-      <c r="B205" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C205" s="1" t="s">
+      <c r="B205" t="s">
+        <v>541</v>
+      </c>
+      <c r="C205" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A206" s="1" t="s">
+      <c r="A206" t="s">
         <v>347</v>
       </c>
-      <c r="B206" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C206" s="1" t="s">
+      <c r="B206" t="s">
+        <v>541</v>
+      </c>
+      <c r="C206" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A207" s="1" t="s">
+      <c r="A207" t="s">
         <v>201</v>
       </c>
-      <c r="B207" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C207" s="1" t="s">
+      <c r="B207" t="s">
+        <v>541</v>
+      </c>
+      <c r="C207" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A208" s="1" t="s">
+      <c r="A208" t="s">
         <v>339</v>
       </c>
-      <c r="B208" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C208" s="1" t="s">
+      <c r="B208" t="s">
+        <v>541</v>
+      </c>
+      <c r="C208" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A209" s="1" t="s">
+      <c r="A209" t="s">
         <v>327</v>
       </c>
-      <c r="B209" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C209" s="1" t="s">
+      <c r="B209" t="s">
+        <v>541</v>
+      </c>
+      <c r="C209" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A210" s="1" t="s">
+      <c r="A210" t="s">
         <v>361</v>
       </c>
-      <c r="B210" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C210" s="1" t="s">
+      <c r="B210" t="s">
+        <v>541</v>
+      </c>
+      <c r="C210" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A211" s="1" t="s">
+      <c r="A211" t="s">
         <v>179</v>
       </c>
-      <c r="B211" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C211" s="1" t="s">
+      <c r="B211" t="s">
+        <v>541</v>
+      </c>
+      <c r="C211" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A212" s="1" t="s">
+      <c r="A212" t="s">
         <v>33</v>
       </c>
-      <c r="B212" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C212" s="1" t="s">
+      <c r="B212" t="s">
+        <v>541</v>
+      </c>
+      <c r="C212" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A213" s="1" t="s">
+      <c r="A213" t="s">
         <v>375</v>
       </c>
-      <c r="B213" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C213" s="1" t="s">
+      <c r="B213" t="s">
+        <v>541</v>
+      </c>
+      <c r="C213" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A214" s="1" t="s">
+      <c r="A214" t="s">
         <v>125</v>
       </c>
-      <c r="B214" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C214" s="1" t="s">
+      <c r="B214" t="s">
+        <v>541</v>
+      </c>
+      <c r="C214" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A215" s="1" t="s">
+      <c r="A215" t="s">
         <v>259</v>
       </c>
-      <c r="B215" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C215" s="1" t="s">
+      <c r="B215" t="s">
+        <v>541</v>
+      </c>
+      <c r="C215" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A216" s="1" t="s">
+      <c r="A216" t="s">
         <v>215</v>
       </c>
-      <c r="B216" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C216" s="1" t="s">
+      <c r="B216" t="s">
+        <v>541</v>
+      </c>
+      <c r="C216" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A217" s="1" t="s">
+      <c r="A217" t="s">
         <v>423</v>
       </c>
-      <c r="B217" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C217" s="1" t="s">
+      <c r="B217" t="s">
+        <v>541</v>
+      </c>
+      <c r="C217" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A218" s="1" t="s">
+      <c r="A218" t="s">
         <v>443</v>
       </c>
-      <c r="B218" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C218" s="1" t="s">
+      <c r="B218" t="s">
+        <v>541</v>
+      </c>
+      <c r="C218" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A219" s="1" t="s">
+      <c r="A219" t="s">
         <v>243</v>
       </c>
-      <c r="B219" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C219" s="1" t="s">
+      <c r="B219" t="s">
+        <v>541</v>
+      </c>
+      <c r="C219" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A220" s="1" t="s">
+      <c r="A220" t="s">
         <v>553</v>
       </c>
-      <c r="B220" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C220" s="1" t="s">
+      <c r="B220" t="s">
+        <v>541</v>
+      </c>
+      <c r="C220" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A221" s="1" t="s">
+      <c r="A221" t="s">
         <v>241</v>
       </c>
-      <c r="B221" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C221" s="1" t="s">
+      <c r="B221" t="s">
+        <v>541</v>
+      </c>
+      <c r="C221" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A222" s="1" t="s">
+      <c r="A222" t="s">
         <v>471</v>
       </c>
-      <c r="B222" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C222" s="1" t="s">
+      <c r="B222" t="s">
+        <v>541</v>
+      </c>
+      <c r="C222" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A223" s="1" t="s">
+      <c r="A223" t="s">
         <v>429</v>
       </c>
-      <c r="B223" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C223" s="1" t="s">
+      <c r="B223" t="s">
+        <v>541</v>
+      </c>
+      <c r="C223" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A224" s="1" t="s">
+      <c r="A224" t="s">
         <v>147</v>
       </c>
-      <c r="B224" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C224" s="1" t="s">
+      <c r="B224" t="s">
+        <v>541</v>
+      </c>
+      <c r="C224" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A225" s="1" t="s">
+      <c r="A225" t="s">
         <v>309</v>
       </c>
-      <c r="B225" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C225" s="1" t="s">
+      <c r="B225" t="s">
+        <v>541</v>
+      </c>
+      <c r="C225" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A226" s="1" t="s">
+      <c r="A226" t="s">
         <v>129</v>
       </c>
-      <c r="B226" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C226" s="1" t="s">
+      <c r="B226" t="s">
+        <v>541</v>
+      </c>
+      <c r="C226" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A227" s="1" t="s">
+      <c r="A227" t="s">
         <v>37</v>
       </c>
-      <c r="B227" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C227" s="1" t="s">
+      <c r="B227" t="s">
+        <v>541</v>
+      </c>
+      <c r="C227" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A228" s="1" t="s">
+      <c r="A228" t="s">
         <v>305</v>
       </c>
-      <c r="B228" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C228" s="1" t="s">
+      <c r="B228" t="s">
+        <v>541</v>
+      </c>
+      <c r="C228" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A229" s="1" t="s">
+      <c r="A229" t="s">
         <v>59</v>
       </c>
-      <c r="B229" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C229" s="1" t="s">
+      <c r="B229" t="s">
+        <v>541</v>
+      </c>
+      <c r="C229" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A230" s="1" t="s">
+      <c r="A230" t="s">
         <v>23</v>
       </c>
-      <c r="B230" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C230" s="1" t="s">
+      <c r="B230" t="s">
+        <v>541</v>
+      </c>
+      <c r="C230" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A231" s="1" t="s">
+      <c r="A231" t="s">
         <v>449</v>
       </c>
-      <c r="B231" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C231" s="1" t="s">
+      <c r="B231" t="s">
+        <v>541</v>
+      </c>
+      <c r="C231" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A232" s="1" t="s">
+      <c r="A232" t="s">
         <v>399</v>
       </c>
-      <c r="B232" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C232" s="1" t="s">
+      <c r="B232" t="s">
+        <v>541</v>
+      </c>
+      <c r="C232" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A233" s="1" t="s">
+      <c r="A233" t="s">
         <v>473</v>
       </c>
-      <c r="B233" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C233" s="1" t="s">
+      <c r="B233" t="s">
+        <v>541</v>
+      </c>
+      <c r="C233" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A234" s="1" t="s">
+      <c r="A234" t="s">
         <v>55</v>
       </c>
-      <c r="B234" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C234" s="1" t="s">
+      <c r="B234" t="s">
+        <v>541</v>
+      </c>
+      <c r="C234" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A235" s="1" t="s">
+      <c r="A235" t="s">
         <v>245</v>
       </c>
-      <c r="B235" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C235" s="1" t="s">
+      <c r="B235" t="s">
+        <v>541</v>
+      </c>
+      <c r="C235" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A236" s="1" t="s">
+      <c r="A236" t="s">
         <v>554</v>
       </c>
-      <c r="B236" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C236" s="1" t="s">
+      <c r="B236" t="s">
+        <v>541</v>
+      </c>
+      <c r="C236" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A237" s="1" t="s">
+      <c r="A237" t="s">
         <v>109</v>
       </c>
-      <c r="B237" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C237" s="1" t="s">
+      <c r="B237" t="s">
+        <v>541</v>
+      </c>
+      <c r="C237" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A238" s="1" t="s">
+      <c r="A238" t="s">
         <v>85</v>
       </c>
-      <c r="B238" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C238" s="1" t="s">
+      <c r="B238" t="s">
+        <v>541</v>
+      </c>
+      <c r="C238" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A239" s="1" t="s">
+      <c r="A239" t="s">
         <v>99</v>
       </c>
-      <c r="B239" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C239" s="1" t="s">
+      <c r="B239" t="s">
+        <v>541</v>
+      </c>
+      <c r="C239" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A240" s="1" t="s">
+      <c r="A240" t="s">
         <v>459</v>
       </c>
-      <c r="B240" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C240" s="1" t="s">
+      <c r="B240" t="s">
+        <v>541</v>
+      </c>
+      <c r="C240" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A241" s="1" t="s">
+      <c r="A241" t="s">
         <v>267</v>
       </c>
-      <c r="B241" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C241" s="1" t="s">
+      <c r="B241" t="s">
+        <v>541</v>
+      </c>
+      <c r="C241" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A242" s="1" t="s">
+      <c r="A242" t="s">
         <v>556</v>
       </c>
-      <c r="B242" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C242" s="1" t="s">
+      <c r="B242" t="s">
+        <v>541</v>
+      </c>
+      <c r="C242" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A243" s="1" t="s">
+      <c r="A243" t="s">
         <v>413</v>
       </c>
-      <c r="B243" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C243" s="1" t="s">
+      <c r="B243" t="s">
+        <v>541</v>
+      </c>
+      <c r="C243" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A244" s="1" t="s">
+      <c r="A244" t="s">
         <v>437</v>
       </c>
-      <c r="B244" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C244" s="1" t="s">
+      <c r="B244" t="s">
+        <v>541</v>
+      </c>
+      <c r="C244" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A245" s="1" t="s">
+      <c r="A245" t="s">
         <v>287</v>
       </c>
-      <c r="B245" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C245" s="1" t="s">
+      <c r="B245" t="s">
+        <v>541</v>
+      </c>
+      <c r="C245" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A246" s="1" t="s">
+      <c r="A246" t="s">
         <v>217</v>
       </c>
-      <c r="B246" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C246" s="1" t="s">
+      <c r="B246" t="s">
+        <v>541</v>
+      </c>
+      <c r="C246" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A247" s="1" t="s">
+      <c r="A247" t="s">
         <v>341</v>
       </c>
-      <c r="B247" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C247" s="1" t="s">
+      <c r="B247" t="s">
+        <v>541</v>
+      </c>
+      <c r="C247" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A248" s="1" t="s">
+      <c r="A248" t="s">
         <v>409</v>
       </c>
-      <c r="B248" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C248" s="1" t="s">
+      <c r="B248" t="s">
+        <v>541</v>
+      </c>
+      <c r="C248" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A249" s="1" t="s">
+      <c r="A249" t="s">
         <v>355</v>
       </c>
-      <c r="B249" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C249" s="1" t="s">
+      <c r="B249" t="s">
+        <v>541</v>
+      </c>
+      <c r="C249" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A250" s="1" t="s">
+      <c r="A250" t="s">
         <v>119</v>
       </c>
-      <c r="B250" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C250" s="1" t="s">
+      <c r="B250" t="s">
+        <v>541</v>
+      </c>
+      <c r="C250" t="s">
         <v>542</v>
       </c>
     </row>
